--- a/BackTest/2019-10-16 BackTest FAB.xlsx
+++ b/BackTest/2019-10-16 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>5.924</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-60.00000000000071</v>
+      </c>
       <c r="L13" t="n">
         <v>5.924</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-77.77777777777821</v>
+      </c>
       <c r="L14" t="n">
         <v>5.918000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-77.77777777777821</v>
+      </c>
       <c r="L15" t="n">
         <v>5.911</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3100000000000005</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>5.911</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.3100000000000005</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-6.666666666666508</v>
+      </c>
       <c r="L17" t="n">
         <v>5.911</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.330000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-17.64705882352947</v>
+      </c>
       <c r="L18" t="n">
         <v>5.907999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.3400000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>27.27272727272742</v>
+      </c>
       <c r="L19" t="n">
         <v>5.903999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.3400000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>39.99999999999982</v>
+      </c>
       <c r="L20" t="n">
         <v>5.906999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5200000000000005</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-49.99999999999984</v>
+      </c>
       <c r="L21" t="n">
         <v>5.892999999999997</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.7000000000000002</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>8.695652173913052</v>
+      </c>
       <c r="L22" t="n">
         <v>5.896999999999997</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.7200000000000006</v>
       </c>
       <c r="K23" t="n">
-        <v>9.375000000000069</v>
+        <v>12.50000000000009</v>
       </c>
       <c r="L23" t="n">
         <v>5.902999999999997</v>
@@ -1466,7 +1488,7 @@
         <v>0.7200000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.50000000000009</v>
       </c>
       <c r="L24" t="n">
         <v>5.908999999999997</v>
@@ -1515,7 +1537,7 @@
         <v>0.7200000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.754385964912242</v>
+        <v>-2.43902439024385</v>
       </c>
       <c r="L25" t="n">
         <v>5.914999999999997</v>
@@ -1564,7 +1586,7 @@
         <v>0.7200000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.754385964912242</v>
+        <v>-2.43902439024385</v>
       </c>
       <c r="L26" t="n">
         <v>5.913999999999997</v>
@@ -1613,7 +1635,7 @@
         <v>0.7300000000000004</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>5.000000000000123</v>
       </c>
       <c r="L27" t="n">
         <v>5.913999999999997</v>
@@ -1662,7 +1684,7 @@
         <v>0.8900000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>-23.28767123287669</v>
+        <v>-23.63636363636363</v>
       </c>
       <c r="L28" t="n">
         <v>5.899999999999998</v>
@@ -1711,7 +1733,7 @@
         <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.555555555555562</v>
       </c>
       <c r="L29" t="n">
         <v>5.903999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>9.523809523809534</v>
+        <v>41.81818181818175</v>
       </c>
       <c r="L30" t="n">
         <v>5.908999999999997</v>
@@ -1809,7 +1831,7 @@
         <v>1.08</v>
       </c>
       <c r="K31" t="n">
-        <v>9.523809523809534</v>
+        <v>10.5263157894737</v>
       </c>
       <c r="L31" t="n">
         <v>5.930999999999996</v>
@@ -1860,7 +1882,7 @@
         <v>1.09</v>
       </c>
       <c r="K32" t="n">
-        <v>10.58823529411763</v>
+        <v>8.108108108107952</v>
       </c>
       <c r="L32" t="n">
         <v>5.935999999999997</v>
@@ -1911,7 +1933,7 @@
         <v>1.09</v>
       </c>
       <c r="K33" t="n">
-        <v>10.58823529411763</v>
+        <v>8.108108108107952</v>
       </c>
       <c r="L33" t="n">
         <v>5.938999999999997</v>
@@ -1962,7 +1984,7 @@
         <v>1.09</v>
       </c>
       <c r="K34" t="n">
-        <v>10.58823529411763</v>
+        <v>8.108108108107952</v>
       </c>
       <c r="L34" t="n">
         <v>5.941999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.09</v>
       </c>
       <c r="K35" t="n">
-        <v>10.58823529411763</v>
+        <v>8.108108108107952</v>
       </c>
       <c r="L35" t="n">
         <v>5.944999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.159999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.882352941176458</v>
+        <v>-11.62790697674418</v>
       </c>
       <c r="L36" t="n">
         <v>5.940999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>1.159999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.882352941176458</v>
+        <v>40.74074074074105</v>
       </c>
       <c r="L37" t="n">
         <v>5.935999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>1.159999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.614457831325232</v>
+        <v>-60.00000000000036</v>
       </c>
       <c r="L38" t="n">
         <v>5.946999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.159999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.439024390243855</v>
+        <v>-77.777777777778</v>
       </c>
       <c r="L39" t="n">
         <v>5.940999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>1.17</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.614457831325335</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L40" t="n">
         <v>5.932999999999998</v>
@@ -2319,7 +2341,7 @@
         <v>1.17</v>
       </c>
       <c r="K41" t="n">
-        <v>23.07692307692301</v>
+        <v>-100</v>
       </c>
       <c r="L41" t="n">
         <v>5.925999999999998</v>
@@ -2370,7 +2392,7 @@
         <v>1.180000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.166666666666574</v>
+        <v>-77.77777777777646</v>
       </c>
       <c r="L42" t="n">
         <v>5.918999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>1.180000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-8.695652173913052</v>
+        <v>-77.77777777777646</v>
       </c>
       <c r="L43" t="n">
         <v>5.911999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-10.63829787234056</v>
+        <v>-79.99999999999893</v>
       </c>
       <c r="L44" t="n">
         <v>5.903999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-10.63829787234056</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>5.895999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-10.63829787234056</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>5.895</v>
@@ -2625,7 +2647,7 @@
         <v>1.200000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.89361702127664</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L47" t="n">
         <v>5.893</v>
@@ -2676,7 +2698,7 @@
         <v>1.210000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>31.24999999999986</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L48" t="n">
         <v>5.891999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>1.220000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-37.49999999999952</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L49" t="n">
         <v>5.891999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>1.220000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-46.66666666666588</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L50" t="n">
         <v>5.892999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>1.220000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>-42.85714285714214</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>5.894</v>
@@ -2880,7 +2902,7 @@
         <v>1.220000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-53.84615384615269</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>5.894</v>
@@ -2931,7 +2953,7 @@
         <v>1.230000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>-57.14285714285624</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>5.893</v>
@@ -2982,7 +3004,7 @@
         <v>1.240000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>-59.99999999999905</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L54" t="n">
         <v>5.892</v>
@@ -3033,7 +3055,7 @@
         <v>1.250000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-49.99999999999945</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>5.892</v>
@@ -3084,7 +3106,7 @@
         <v>1.250000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111155</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L56" t="n">
         <v>5.892</v>
@@ -3135,7 +3157,7 @@
         <v>1.260000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>-20</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L57" t="n">
         <v>5.891999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.09090909090953</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L58" t="n">
         <v>5.891999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.09090909090953</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L59" t="n">
         <v>5.890999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L60" t="n">
         <v>5.889999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-20.00000000000142</v>
       </c>
       <c r="L61" t="n">
         <v>5.888999999999998</v>
@@ -3390,7 +3412,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L62" t="n">
         <v>5.888999999999998</v>
@@ -3441,7 +3463,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L63" t="n">
         <v>5.889999999999998</v>
@@ -3492,7 +3514,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>11.11111111111177</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L64" t="n">
         <v>5.891999999999998</v>
@@ -3547,7 +3569,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111177</v>
+        <v>33.33333333333531</v>
       </c>
       <c r="L65" t="n">
         <v>5.892999999999998</v>
@@ -3606,7 +3628,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111177</v>
+        <v>100</v>
       </c>
       <c r="L66" t="n">
         <v>5.893999999999998</v>
@@ -3665,7 +3687,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>39.99999999999982</v>
+        <v>100</v>
       </c>
       <c r="L67" t="n">
         <v>5.897999999999998</v>
@@ -3724,7 +3746,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
         <v>5.900999999999998</v>
@@ -3783,7 +3805,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>24.99999999999945</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
         <v>5.903999999999998</v>
@@ -3842,7 +3864,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>24.99999999999945</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>5.906999999999998</v>
@@ -3899,7 +3921,7 @@
         <v>1.350000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>53.84615384615342</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>5.914999999999997</v>
@@ -3956,7 +3978,7 @@
         <v>1.360000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>42.85714285714268</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L72" t="n">
         <v>5.920999999999998</v>
@@ -4013,7 +4035,7 @@
         <v>1.400000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>17.64705882352966</v>
+        <v>16.66666666666642</v>
       </c>
       <c r="L73" t="n">
         <v>5.922999999999996</v>
@@ -4072,7 +4094,7 @@
         <v>1.420000000000002</v>
       </c>
       <c r="K74" t="n">
-        <v>33.33333333333366</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L74" t="n">
         <v>5.926999999999998</v>
@@ -4129,7 +4151,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>40.00000000000018</v>
+        <v>41.17647058823517</v>
       </c>
       <c r="L75" t="n">
         <v>5.933999999999998</v>
@@ -4188,7 +4210,7 @@
         <v>1.450000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>40.00000000000018</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>5.940999999999999</v>
@@ -4251,7 +4273,7 @@
         <v>1.460000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>50.00000000000022</v>
+        <v>37.50000000000028</v>
       </c>
       <c r="L77" t="n">
         <v>5.946999999999998</v>
@@ -4314,7 +4336,7 @@
         <v>1.480000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>52.38095238095254</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L78" t="n">
         <v>5.954999999999998</v>
@@ -4375,7 +4397,7 @@
         <v>1.510000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>58.33333333333351</v>
+        <v>52.38095238095254</v>
       </c>
       <c r="L79" t="n">
         <v>5.965999999999998</v>
@@ -4436,7 +4458,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>62.96296296296303</v>
+        <v>47.36842105263162</v>
       </c>
       <c r="L80" t="n">
         <v>5.979999999999999</v>
@@ -4497,7 +4519,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>62.96296296296303</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L81" t="n">
         <v>5.988999999999999</v>
@@ -4560,7 +4582,7 @@
         <v>1.630000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>71.4285714285715</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>6.007999999999999</v>
@@ -4621,7 +4643,7 @@
         <v>1.760000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>79.16666666666671</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>6.043999999999999</v>
@@ -4678,7 +4700,7 @@
         <v>1.770000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>79.59183673469393</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>6.078999999999999</v>
@@ -4735,7 +4757,7 @@
         <v>1.860000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>51.72413793103452</v>
+        <v>56.09756097560984</v>
       </c>
       <c r="L85" t="n">
         <v>6.101999999999999</v>
@@ -4786,7 +4808,7 @@
         <v>1.890000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>54.09836065573776</v>
+        <v>58.13953488372097</v>
       </c>
       <c r="L86" t="n">
         <v>6.128</v>
@@ -4837,7 +4859,7 @@
         <v>1.970000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>34.32835820895529</v>
+        <v>30.61224489795925</v>
       </c>
       <c r="L87" t="n">
         <v>6.145</v>
@@ -4888,7 +4910,7 @@
         <v>2.010000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>38.02816901408458</v>
+        <v>32.00000000000003</v>
       </c>
       <c r="L88" t="n">
         <v>6.164</v>
@@ -4939,7 +4961,7 @@
         <v>2.020000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>36.11111111111105</v>
+        <v>24.99999999999995</v>
       </c>
       <c r="L89" t="n">
         <v>6.178999999999999</v>
@@ -4990,7 +5012,7 @@
         <v>2.020000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>36.11111111111105</v>
+        <v>24.99999999999995</v>
       </c>
       <c r="L90" t="n">
         <v>6.191</v>
@@ -5041,7 +5063,7 @@
         <v>2.020000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>31.34328358208951</v>
+        <v>7.692307692307517</v>
       </c>
       <c r="L91" t="n">
         <v>6.203</v>
@@ -5092,7 +5114,7 @@
         <v>2.020000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>33.33333333333324</v>
+        <v>-38.46153846153857</v>
       </c>
       <c r="L92" t="n">
         <v>6.206000000000001</v>
@@ -5143,7 +5165,7 @@
         <v>2.020000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>41.93548387096764</v>
+        <v>-43.99999999999997</v>
       </c>
       <c r="L93" t="n">
         <v>6.196000000000001</v>
@@ -5194,7 +5216,7 @@
         <v>2.030000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>40.98360655737697</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L94" t="n">
         <v>6.186000000000001</v>
@@ -5245,7 +5267,7 @@
         <v>2.050000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>33.33333333333324</v>
+        <v>-37.49999999999986</v>
       </c>
       <c r="L95" t="n">
         <v>6.183</v>
@@ -5296,7 +5318,7 @@
         <v>2.050000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>33.33333333333324</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L96" t="n">
         <v>6.177</v>
@@ -5347,7 +5369,7 @@
         <v>2.050000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>32.2033898305083</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L97" t="n">
         <v>6.179</v>
@@ -5398,7 +5420,7 @@
         <v>2.050000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>29.82456140350865</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L98" t="n">
         <v>6.177</v>
@@ -5449,7 +5471,7 @@
         <v>2.110000000000004</v>
       </c>
       <c r="K99" t="n">
-        <v>33.33333333333324</v>
+        <v>55.55555555555534</v>
       </c>
       <c r="L99" t="n">
         <v>6.182</v>
@@ -5500,7 +5522,7 @@
         <v>2.200000000000004</v>
       </c>
       <c r="K100" t="n">
-        <v>39.39393939393933</v>
+        <v>77.77777777777744</v>
       </c>
       <c r="L100" t="n">
         <v>6.196</v>
@@ -5551,7 +5573,7 @@
         <v>2.230000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>33.33333333333325</v>
+        <v>52.3809523809521</v>
       </c>
       <c r="L101" t="n">
         <v>6.207</v>
@@ -5602,7 +5624,7 @@
         <v>2.230000000000004</v>
       </c>
       <c r="K102" t="n">
-        <v>23.33333333333319</v>
+        <v>52.3809523809521</v>
       </c>
       <c r="L102" t="n">
         <v>6.218</v>
@@ -5653,7 +5675,7 @@
         <v>2.230000000000004</v>
       </c>
       <c r="K103" t="n">
-        <v>2.127659574468029</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L103" t="n">
         <v>6.229</v>
@@ -5704,7 +5726,7 @@
         <v>2.230000000000004</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>66.6666666666665</v>
       </c>
       <c r="L104" t="n">
         <v>6.239</v>
@@ -5755,7 +5777,7 @@
         <v>2.320000000000004</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L105" t="n">
         <v>6.242</v>
@@ -5806,7 +5828,7 @@
         <v>2.320000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>-6.976744186046531</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L106" t="n">
         <v>6.245</v>
@@ -5857,7 +5879,7 @@
         <v>2.340000000000003</v>
       </c>
       <c r="K107" t="n">
-        <v>18.91891891891866</v>
+        <v>17.24137931034477</v>
       </c>
       <c r="L107" t="n">
         <v>6.25</v>
@@ -5908,7 +5930,7 @@
         <v>2.390000000000003</v>
       </c>
       <c r="K108" t="n">
-        <v>-5.26315789473694</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L108" t="n">
         <v>6.25</v>
@@ -5959,7 +5981,7 @@
         <v>2.420000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>5.0000000000001</v>
+        <v>-54.54545454545465</v>
       </c>
       <c r="L109" t="n">
         <v>6.247</v>
@@ -6010,7 +6032,7 @@
         <v>2.420000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>5.0000000000001</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L110" t="n">
         <v>6.235</v>
@@ -6061,7 +6083,7 @@
         <v>2.420000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>5.0000000000001</v>
+        <v>-47.36842105263162</v>
       </c>
       <c r="L111" t="n">
         <v>6.226</v>
@@ -6112,7 +6134,7 @@
         <v>2.430000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>7.31707317073175</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L112" t="n">
         <v>6.218</v>
@@ -6163,7 +6185,7 @@
         <v>2.440000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>4.761904761904863</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L113" t="n">
         <v>6.209</v>
@@ -6214,7 +6236,7 @@
         <v>2.540000000000003</v>
       </c>
       <c r="K114" t="n">
-        <v>21.56862745098029</v>
+        <v>45.45454545454552</v>
       </c>
       <c r="L114" t="n">
         <v>6.21</v>
@@ -6265,7 +6287,7 @@
         <v>2.580000000000003</v>
       </c>
       <c r="K115" t="n">
-        <v>16.98113207547169</v>
+        <v>23.07692307692303</v>
       </c>
       <c r="L115" t="n">
         <v>6.215999999999999</v>
@@ -6316,7 +6338,7 @@
         <v>2.580000000000003</v>
       </c>
       <c r="K116" t="n">
-        <v>16.98113207547169</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L116" t="n">
         <v>6.222</v>
@@ -6367,7 +6389,7 @@
         <v>2.620000000000003</v>
       </c>
       <c r="K117" t="n">
-        <v>22.80701754385965</v>
+        <v>56.52173913043485</v>
       </c>
       <c r="L117" t="n">
         <v>6.23</v>
@@ -6418,7 +6440,7 @@
         <v>2.630000000000003</v>
       </c>
       <c r="K118" t="n">
-        <v>20.68965517241384</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L118" t="n">
         <v>6.242</v>
@@ -6469,7 +6491,7 @@
         <v>2.630000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>11.53846153846149</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L119" t="n">
         <v>6.251</v>
@@ -6520,7 +6542,7 @@
         <v>2.650000000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111129</v>
+        <v>30.43478260869545</v>
       </c>
       <c r="L120" t="n">
         <v>6.258</v>
@@ -6571,7 +6593,7 @@
         <v>2.650000000000003</v>
       </c>
       <c r="K121" t="n">
-        <v>-4.761904761904883</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L121" t="n">
         <v>6.264999999999999</v>
@@ -6622,7 +6644,7 @@
         <v>2.650000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>-4.761904761904883</v>
+        <v>33.33333333333305</v>
       </c>
       <c r="L122" t="n">
         <v>6.270999999999999</v>
@@ -6673,7 +6695,7 @@
         <v>2.650000000000003</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.761904761904883</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L123" t="n">
         <v>6.277999999999999</v>
@@ -6724,7 +6746,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.976744186046588</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>6.273999999999999</v>
@@ -6775,7 +6797,7 @@
         <v>2.660000000000003</v>
       </c>
       <c r="K125" t="n">
-        <v>17.64705882352935</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>6.274</v>
@@ -6826,7 +6848,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K126" t="n">
-        <v>26.31578947368419</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>6.278</v>
@@ -6877,7 +6899,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>22.22222222222228</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L127" t="n">
         <v>6.278000000000001</v>
@@ -6928,7 +6950,7 @@
         <v>2.710000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>37.50000000000011</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>6.278000000000002</v>
@@ -6979,7 +7001,7 @@
         <v>2.710000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>31.03448275862073</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L129" t="n">
         <v>6.278000000000002</v>
@@ -7030,7 +7052,7 @@
         <v>2.710000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>31.03448275862073</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L130" t="n">
         <v>6.280000000000003</v>
@@ -7081,7 +7103,7 @@
         <v>2.730000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>35.4838709677419</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L131" t="n">
         <v>6.284000000000003</v>
@@ -7132,7 +7154,7 @@
         <v>2.740000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>29.0322580645162</v>
+        <v>33.33333333333399</v>
       </c>
       <c r="L132" t="n">
         <v>6.287000000000003</v>
@@ -7183,7 +7205,7 @@
         <v>2.770000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>39.39393939393946</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L133" t="n">
         <v>6.293000000000004</v>
@@ -7234,7 +7256,7 @@
         <v>2.810000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-3.70370370370363</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L134" t="n">
         <v>6.296000000000005</v>
@@ -7285,7 +7307,7 @@
         <v>2.810000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>13.0434782608697</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L135" t="n">
         <v>6.299000000000005</v>
@@ -7336,7 +7358,7 @@
         <v>2.870000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>31.03448275862073</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L136" t="n">
         <v>6.304000000000005</v>
@@ -7387,7 +7409,7 @@
         <v>2.870000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>20</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L137" t="n">
         <v>6.309000000000005</v>
@@ -7438,7 +7460,7 @@
         <v>2.870000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>24.99999999999991</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L138" t="n">
         <v>6.315000000000004</v>
@@ -7489,7 +7511,7 @@
         <v>2.870000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>24.99999999999991</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L139" t="n">
         <v>6.321000000000004</v>
@@ -7540,7 +7562,7 @@
         <v>2.900000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>20.00000000000043</v>
+        <v>5.882352941176901</v>
       </c>
       <c r="L140" t="n">
         <v>6.324000000000004</v>
@@ -7591,7 +7613,7 @@
         <v>2.900000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>20.00000000000043</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L141" t="n">
         <v>6.325000000000005</v>
@@ -7642,7 +7664,7 @@
         <v>2.930000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>28.57142857142884</v>
+        <v>12.49999999999986</v>
       </c>
       <c r="L142" t="n">
         <v>6.330000000000004</v>
@@ -7693,7 +7715,7 @@
         <v>3.020000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>45.94594594594638</v>
+        <v>71.42857142857191</v>
       </c>
       <c r="L143" t="n">
         <v>6.341000000000004</v>
@@ -7744,7 +7766,7 @@
         <v>3.080000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>57.14285714285744</v>
+        <v>77.77777777777814</v>
       </c>
       <c r="L144" t="n">
         <v>6.362000000000004</v>
@@ -7795,7 +7817,7 @@
         <v>3.090000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>58.13953488372121</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L145" t="n">
         <v>6.384000000000004</v>
@@ -7846,7 +7868,7 @@
         <v>3.160000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>60.8695652173916</v>
+        <v>79.31034482758659</v>
       </c>
       <c r="L146" t="n">
         <v>6.407000000000005</v>
@@ -7897,7 +7919,7 @@
         <v>3.170000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>61.70212765957474</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L147" t="n">
         <v>6.431000000000006</v>
@@ -7948,7 +7970,7 @@
         <v>3.180000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>61.70212765957474</v>
+        <v>74.19354838709722</v>
       </c>
       <c r="L148" t="n">
         <v>6.454000000000006</v>
@@ -7999,7 +8021,7 @@
         <v>3.210000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>52.00000000000015</v>
+        <v>74.19354838709673</v>
       </c>
       <c r="L149" t="n">
         <v>6.474000000000006</v>
@@ -8050,7 +8072,7 @@
         <v>3.23</v>
       </c>
       <c r="K150" t="n">
-        <v>46.15384615384639</v>
+        <v>63.63636363636378</v>
       </c>
       <c r="L150" t="n">
         <v>6.495000000000007</v>
@@ -8101,7 +8123,7 @@
         <v>3.25</v>
       </c>
       <c r="K151" t="n">
-        <v>46.15384615384639</v>
+        <v>62.50000000000018</v>
       </c>
       <c r="L151" t="n">
         <v>6.518000000000006</v>
@@ -8152,7 +8174,7 @@
         <v>3.28</v>
       </c>
       <c r="K152" t="n">
-        <v>51.85185185185206</v>
+        <v>53.84615384615395</v>
       </c>
       <c r="L152" t="n">
         <v>6.541000000000007</v>
@@ -8203,7 +8225,7 @@
         <v>3.29</v>
       </c>
       <c r="K153" t="n">
-        <v>46.15384615384639</v>
+        <v>33.33333333333361</v>
       </c>
       <c r="L153" t="n">
         <v>6.554000000000007</v>
@@ -8254,7 +8276,7 @@
         <v>3.340000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>43.39622641509438</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L154" t="n">
         <v>6.556000000000007</v>
@@ -8305,7 +8327,7 @@
         <v>3.340000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>43.39622641509438</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L155" t="n">
         <v>6.557000000000007</v>
@@ -8356,7 +8378,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>37.50000000000016</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>6.552000000000007</v>
@@ -8407,7 +8429,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>37.50000000000016</v>
+        <v>-29.41176470588211</v>
       </c>
       <c r="L157" t="n">
         <v>6.546000000000006</v>
@@ -8458,7 +8480,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>37.50000000000016</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L158" t="n">
         <v>6.541000000000007</v>
@@ -8509,7 +8531,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>37.50000000000016</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>6.539000000000007</v>
@@ -8560,7 +8582,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>46.66666666666664</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L160" t="n">
         <v>6.539000000000007</v>
@@ -8611,7 +8633,7 @@
         <v>3.350000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>46.66666666666664</v>
+        <v>-71.42857142856998</v>
       </c>
       <c r="L161" t="n">
         <v>6.537000000000008</v>
@@ -8662,7 +8684,7 @@
         <v>3.400000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>27.65957446808524</v>
+        <v>-81.81818181818079</v>
       </c>
       <c r="L162" t="n">
         <v>6.527000000000008</v>
@@ -8713,7 +8735,7 @@
         <v>3.400000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>10.5263157894737</v>
+        <v>-66.6666666666647</v>
       </c>
       <c r="L163" t="n">
         <v>6.51800000000001</v>
@@ -8764,7 +8786,7 @@
         <v>3.450000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>8.108108108108173</v>
+        <v>9.090909090909678</v>
       </c>
       <c r="L164" t="n">
         <v>6.51900000000001</v>
@@ -8815,7 +8837,7 @@
         <v>3.450000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>5.555555555555679</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>6.52000000000001</v>
@@ -8866,7 +8888,7 @@
         <v>3.48</v>
       </c>
       <c r="K166" t="n">
-        <v>-6.250000000000157</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L166" t="n">
         <v>6.52300000000001</v>
@@ -8917,7 +8939,7 @@
         <v>3.510000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L167" t="n">
         <v>6.529000000000011</v>
@@ -8968,7 +8990,7 @@
         <v>3.510000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>3.030303030302965</v>
+        <v>37.49999999999993</v>
       </c>
       <c r="L168" t="n">
         <v>6.535000000000011</v>
@@ -9019,7 +9041,7 @@
         <v>3.52</v>
       </c>
       <c r="K169" t="n">
-        <v>9.677419354838802</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L169" t="n">
         <v>6.540000000000011</v>
@@ -9070,7 +9092,7 @@
         <v>3.52</v>
       </c>
       <c r="K170" t="n">
-        <v>17.24137931034477</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L170" t="n">
         <v>6.545000000000011</v>
@@ -9121,7 +9143,7 @@
         <v>3.52</v>
       </c>
       <c r="K171" t="n">
-        <v>11.11111111111118</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L171" t="n">
         <v>6.55000000000001</v>
@@ -9172,7 +9194,7 @@
         <v>3.52</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L172" t="n">
         <v>6.560000000000009</v>
@@ -9223,7 +9245,7 @@
         <v>3.52</v>
       </c>
       <c r="K173" t="n">
-        <v>4.347826086956421</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L173" t="n">
         <v>6.570000000000009</v>
@@ -9274,7 +9296,7 @@
         <v>3.52</v>
       </c>
       <c r="K174" t="n">
-        <v>33.33333333333366</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L174" t="n">
         <v>6.575000000000008</v>
@@ -9325,7 +9347,7 @@
         <v>3.53</v>
       </c>
       <c r="K175" t="n">
-        <v>26.31578947368465</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L175" t="n">
         <v>6.579000000000008</v>
@@ -9376,7 +9398,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>9.999999999999822</v>
+        <v>-100</v>
       </c>
       <c r="L176" t="n">
         <v>6.578000000000007</v>
@@ -9427,7 +9449,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>9.999999999999822</v>
+        <v>-100</v>
       </c>
       <c r="L177" t="n">
         <v>6.574000000000007</v>
@@ -9478,7 +9500,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>9.999999999999822</v>
+        <v>-100</v>
       </c>
       <c r="L178" t="n">
         <v>6.570000000000006</v>
@@ -9529,7 +9551,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>9.999999999999822</v>
+        <v>-100</v>
       </c>
       <c r="L179" t="n">
         <v>6.567000000000005</v>
@@ -9580,7 +9602,7 @@
         <v>3.550000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>9.999999999999822</v>
+        <v>-100</v>
       </c>
       <c r="L180" t="n">
         <v>6.564000000000005</v>
@@ -9631,7 +9653,7 @@
         <v>3.57</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L181" t="n">
         <v>6.559000000000006</v>
@@ -9682,7 +9704,7 @@
         <v>3.61</v>
       </c>
       <c r="K182" t="n">
-        <v>4.761904761904681</v>
+        <v>-100</v>
       </c>
       <c r="L182" t="n">
         <v>6.550000000000006</v>
@@ -9733,7 +9755,7 @@
         <v>3.65</v>
       </c>
       <c r="K183" t="n">
-        <v>-12.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L183" t="n">
         <v>6.537000000000006</v>
@@ -9784,7 +9806,7 @@
         <v>3.65</v>
       </c>
       <c r="K184" t="n">
-        <v>-40.00000000000018</v>
+        <v>-100</v>
       </c>
       <c r="L184" t="n">
         <v>6.524000000000006</v>
@@ -9835,7 +9857,7 @@
         <v>3.65</v>
       </c>
       <c r="K185" t="n">
-        <v>-40.00000000000018</v>
+        <v>-100</v>
       </c>
       <c r="L185" t="n">
         <v>6.512000000000006</v>
@@ -9886,7 +9908,7 @@
         <v>3.680000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>-39.99999999999956</v>
+        <v>-53.84615384615342</v>
       </c>
       <c r="L186" t="n">
         <v>6.505000000000007</v>
@@ -9937,7 +9959,7 @@
         <v>3.780000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>-77.77777777777763</v>
+        <v>-73.9130434782607</v>
       </c>
       <c r="L187" t="n">
         <v>6.488000000000007</v>
@@ -9988,7 +10010,7 @@
         <v>3.780000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>-77.77777777777763</v>
+        <v>-73.9130434782607</v>
       </c>
       <c r="L188" t="n">
         <v>6.471000000000006</v>
@@ -10039,7 +10061,7 @@
         <v>3.870000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>-31.42857142857147</v>
+        <v>-25</v>
       </c>
       <c r="L189" t="n">
         <v>6.463000000000006</v>
@@ -10090,7 +10112,7 @@
         <v>3.870000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>-31.42857142857147</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L190" t="n">
         <v>6.455000000000007</v>
@@ -10141,7 +10163,7 @@
         <v>3.870000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>-31.42857142857147</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L191" t="n">
         <v>6.449000000000007</v>
@@ -10192,7 +10214,7 @@
         <v>3.870000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>-31.42857142857147</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L192" t="n">
         <v>6.447000000000007</v>
@@ -10243,7 +10265,7 @@
         <v>3.870000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>-31.42857142857147</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L193" t="n">
         <v>6.449000000000007</v>
@@ -10294,7 +10316,7 @@
         <v>3.870000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>-31.42857142857147</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L194" t="n">
         <v>6.451000000000006</v>
@@ -10345,7 +10367,7 @@
         <v>3.990000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>-47.82608695652179</v>
+        <v>-41.93548387096793</v>
       </c>
       <c r="L195" t="n">
         <v>6.441000000000005</v>
@@ -10396,7 +10418,7 @@
         <v>4.000000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-46.66666666666664</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L196" t="n">
         <v>6.427000000000005</v>
@@ -10447,7 +10469,7 @@
         <v>4.02</v>
       </c>
       <c r="K197" t="n">
-        <v>-48.93617021276589</v>
+        <v>-24.99999999999991</v>
       </c>
       <c r="L197" t="n">
         <v>6.421000000000006</v>
@@ -10498,7 +10520,7 @@
         <v>4.030000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L198" t="n">
         <v>6.414000000000007</v>
@@ -10549,7 +10571,7 @@
         <v>4.040000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>-46.93877551020388</v>
+        <v>-88.23529411764632</v>
       </c>
       <c r="L199" t="n">
         <v>6.399000000000006</v>
@@ -10600,7 +10622,7 @@
         <v>4.180000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>-58.73015873015859</v>
+        <v>-93.54838709677379</v>
       </c>
       <c r="L200" t="n">
         <v>6.370000000000007</v>
@@ -10651,7 +10673,7 @@
         <v>4.310000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>-29.72972972972974</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L201" t="n">
         <v>6.354000000000008</v>
@@ -10702,7 +10724,7 @@
         <v>4.330000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>-27.77777777777775</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L202" t="n">
         <v>6.336000000000008</v>
@@ -10753,7 +10775,7 @@
         <v>4.330000000000002</v>
       </c>
       <c r="K203" t="n">
-        <v>-23.52941176470585</v>
+        <v>-39.13043478260856</v>
       </c>
       <c r="L203" t="n">
         <v>6.318000000000009</v>
@@ -10804,7 +10826,7 @@
         <v>4.330000000000002</v>
       </c>
       <c r="K204" t="n">
-        <v>-23.52941176470585</v>
+        <v>-17.64705882352926</v>
       </c>
       <c r="L204" t="n">
         <v>6.30000000000001</v>
@@ -10855,7 +10877,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-13.51351351351356</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L205" t="n">
         <v>6.30000000000001</v>
@@ -10906,7 +10928,7 @@
         <v>4.410000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-20.54794520547949</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L206" t="n">
         <v>6.299000000000009</v>
@@ -10957,7 +10979,7 @@
         <v>4.460000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.70588235294113</v>
+        <v>-6.976744186046367</v>
       </c>
       <c r="L207" t="n">
         <v>6.29500000000001</v>
@@ -11008,7 +11030,7 @@
         <v>4.540000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-23.68421052631576</v>
+        <v>-24.00000000000006</v>
       </c>
       <c r="L208" t="n">
         <v>6.284000000000009</v>
@@ -11059,7 +11081,7 @@
         <v>4.620000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-25.33333333333327</v>
+        <v>22.72727272727292</v>
       </c>
       <c r="L209" t="n">
         <v>6.280000000000009</v>
@@ -11110,7 +11132,7 @@
         <v>4.640000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-27.27272727272726</v>
+        <v>-15.15151515151513</v>
       </c>
       <c r="L210" t="n">
         <v>6.288000000000009</v>
@@ -11161,7 +11183,7 @@
         <v>4.660000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>-29.11392405063285</v>
+        <v>-15.15151515151513</v>
       </c>
       <c r="L211" t="n">
         <v>6.281000000000009</v>
@@ -11212,7 +11234,7 @@
         <v>4.660000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>-29.11392405063285</v>
+        <v>-15.15151515151513</v>
       </c>
       <c r="L212" t="n">
         <v>6.276000000000009</v>
@@ -11263,7 +11285,7 @@
         <v>4.740000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-35.63218390804593</v>
+        <v>-31.70731707317077</v>
       </c>
       <c r="L213" t="n">
         <v>6.263000000000009</v>
@@ -11314,7 +11336,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-26.88172043010753</v>
+        <v>-31.70731707317077</v>
       </c>
       <c r="L214" t="n">
         <v>6.256000000000009</v>
@@ -11365,7 +11387,7 @@
         <v>4.850000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>-20.93023255813952</v>
+        <v>-36.36363636363644</v>
       </c>
       <c r="L215" t="n">
         <v>6.238000000000008</v>
@@ -11416,7 +11438,7 @@
         <v>4.850000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-20</v>
+        <v>-28.20512820512831</v>
       </c>
       <c r="L216" t="n">
         <v>6.222000000000008</v>
@@ -11467,7 +11489,7 @@
         <v>4.86</v>
       </c>
       <c r="K217" t="n">
-        <v>-19.04761904761907</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L217" t="n">
         <v>6.210000000000008</v>
@@ -11518,7 +11540,7 @@
         <v>4.95</v>
       </c>
       <c r="K218" t="n">
-        <v>-6.521739130434747</v>
+        <v>-9.090909090909188</v>
       </c>
       <c r="L218" t="n">
         <v>6.215000000000008</v>
@@ -11569,7 +11591,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-20.75471698113216</v>
+        <v>-34.78260869565227</v>
       </c>
       <c r="L219" t="n">
         <v>6.197000000000007</v>
@@ -11620,7 +11642,7 @@
         <v>5.240000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>5.66037735849062</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>6.195000000000007</v>
@@ -11671,7 +11693,7 @@
         <v>5.260000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>-9.473684210526308</v>
+        <v>-3.333333333333408</v>
       </c>
       <c r="L221" t="n">
         <v>6.193000000000007</v>
@@ -11722,7 +11744,7 @@
         <v>5.260000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>-7.52688172043014</v>
+        <v>11.53846153846145</v>
       </c>
       <c r="L222" t="n">
         <v>6.191000000000008</v>
@@ -11773,7 +11795,7 @@
         <v>5.270000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>-8.510638297872353</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L223" t="n">
         <v>6.196000000000008</v>
@@ -11824,7 +11846,7 @@
         <v>5.280000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-9.473684210526308</v>
+        <v>6.97674418604656</v>
       </c>
       <c r="L224" t="n">
         <v>6.194000000000008</v>
@@ -11875,7 +11897,7 @@
         <v>5.290000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-17.77777777777771</v>
+        <v>4.545454545454646</v>
       </c>
       <c r="L225" t="n">
         <v>6.196000000000008</v>
@@ -11926,7 +11948,7 @@
         <v>5.31</v>
       </c>
       <c r="K226" t="n">
-        <v>-13.33333333333335</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L226" t="n">
         <v>6.200000000000007</v>
@@ -11977,7 +11999,7 @@
         <v>5.350000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-3.370786516853962</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>6.209000000000008</v>
@@ -12028,7 +12050,7 @@
         <v>5.350000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>6.172839506172821</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L228" t="n">
         <v>6.209000000000008</v>
@@ -12079,7 +12101,7 @@
         <v>5.510000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-21.34831460674162</v>
+        <v>-55.55555555555578</v>
       </c>
       <c r="L229" t="n">
         <v>6.208000000000007</v>
@@ -12130,7 +12152,7 @@
         <v>5.69</v>
       </c>
       <c r="K230" t="n">
-        <v>0.952380952380933</v>
+        <v>11.62790697674418</v>
       </c>
       <c r="L230" t="n">
         <v>6.211000000000007</v>
@@ -12181,7 +12203,7 @@
         <v>5.72</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>4.34782608695664</v>
       </c>
       <c r="L231" t="n">
         <v>6.213000000000008</v>
@@ -12232,7 +12254,7 @@
         <v>5.84</v>
       </c>
       <c r="K232" t="n">
-        <v>-10.16949152542375</v>
+        <v>-15.78947368421054</v>
       </c>
       <c r="L232" t="n">
         <v>6.203000000000008</v>
@@ -12283,7 +12305,7 @@
         <v>5.97</v>
       </c>
       <c r="K233" t="n">
-        <v>7.317073170731704</v>
+        <v>7.246376811594192</v>
       </c>
       <c r="L233" t="n">
         <v>6.207000000000009</v>
@@ -12334,7 +12356,7 @@
         <v>6.109999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>-8.396946564885461</v>
+        <v>-9.756097560975636</v>
       </c>
       <c r="L234" t="n">
         <v>6.198000000000009</v>
@@ -12385,7 +12407,7 @@
         <v>6.119999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.937007874015738</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L235" t="n">
         <v>6.19100000000001</v>
@@ -12436,7 +12458,7 @@
         <v>6.129999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>-4.687499999999975</v>
+        <v>-17.94871794871794</v>
       </c>
       <c r="L236" t="n">
         <v>6.18100000000001</v>
@@ -12487,7 +12509,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>1.492537313432806</v>
+        <v>-8.235294117647113</v>
       </c>
       <c r="L237" t="n">
         <v>6.174000000000009</v>
@@ -12538,7 +12560,7 @@
         <v>6.229999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>-7.812499999999988</v>
+        <v>8.333333333333435</v>
       </c>
       <c r="L238" t="n">
         <v>6.16400000000001</v>
@@ -12589,7 +12611,7 @@
         <v>6.239999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>5.263157894736899</v>
+        <v>-20</v>
       </c>
       <c r="L239" t="n">
         <v>6.171000000000009</v>
@@ -12640,7 +12662,7 @@
         <v>6.249999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>-8.910891089108929</v>
+        <v>-16.98113207547175</v>
       </c>
       <c r="L240" t="n">
         <v>6.15900000000001</v>
@@ -12691,7 +12713,7 @@
         <v>6.299999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>-11.53846153846159</v>
+        <v>-4.34782608695664</v>
       </c>
       <c r="L241" t="n">
         <v>6.145000000000009</v>
@@ -12742,7 +12764,7 @@
         <v>6.369999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>-17.11711711711714</v>
+        <v>-55.00000000000026</v>
       </c>
       <c r="L242" t="n">
         <v>6.136000000000009</v>
@@ -12793,7 +12815,7 @@
         <v>6.369999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>-16.3636363636364</v>
+        <v>-30.76923076923103</v>
       </c>
       <c r="L243" t="n">
         <v>6.114000000000009</v>
@@ -12844,7 +12866,7 @@
         <v>6.469999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>-5.882352941176515</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L244" t="n">
         <v>6.116000000000009</v>
@@ -12895,7 +12917,7 @@
         <v>6.479999999999997</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.882352941176515</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L245" t="n">
         <v>6.116000000000009</v>
@@ -12946,7 +12968,7 @@
         <v>6.499999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>-9.243697478991649</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L246" t="n">
         <v>6.115000000000009</v>
@@ -12997,7 +13019,7 @@
         <v>6.539999999999997</v>
       </c>
       <c r="K247" t="n">
-        <v>-9.243697478991649</v>
+        <v>-3.225806451613125</v>
       </c>
       <c r="L247" t="n">
         <v>6.11100000000001</v>
@@ -13048,7 +13070,7 @@
         <v>6.669999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>-18.18181818181824</v>
+        <v>-34.88372093023266</v>
       </c>
       <c r="L248" t="n">
         <v>6.097000000000009</v>
@@ -13099,7 +13121,7 @@
         <v>6.759999999999997</v>
       </c>
       <c r="K249" t="n">
-        <v>0.7999999999999853</v>
+        <v>-9.803921568627594</v>
       </c>
       <c r="L249" t="n">
         <v>6.09100000000001</v>
@@ -13150,7 +13172,7 @@
         <v>6.809999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>-10.71428571428567</v>
+        <v>9.803921568627594</v>
       </c>
       <c r="L250" t="n">
         <v>6.09100000000001</v>
@@ -13201,7 +13223,7 @@
         <v>6.809999999999998</v>
       </c>
       <c r="K251" t="n">
-        <v>-8.256880733944955</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L251" t="n">
         <v>6.09600000000001</v>
@@ -13252,7 +13274,7 @@
         <v>6.849999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.990099009900971</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L252" t="n">
         <v>6.104000000000011</v>
@@ -13303,7 +13325,7 @@
         <v>6.879999999999997</v>
       </c>
       <c r="K253" t="n">
-        <v>-12.08791208791216</v>
+        <v>2.43902439024385</v>
       </c>
       <c r="L253" t="n">
         <v>6.115000000000011</v>
@@ -13354,7 +13376,7 @@
         <v>6.909999999999997</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L254" t="n">
         <v>6.11300000000001</v>
@@ -13405,7 +13427,7 @@
         <v>7.009999999999997</v>
       </c>
       <c r="K255" t="n">
-        <v>-12.35955056179782</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L255" t="n">
         <v>6.10200000000001</v>
@@ -13456,7 +13478,7 @@
         <v>7.019999999999997</v>
       </c>
       <c r="K256" t="n">
-        <v>-10.11235955056191</v>
+        <v>-25.00000000000004</v>
       </c>
       <c r="L256" t="n">
         <v>6.09400000000001</v>
@@ -13507,7 +13529,7 @@
         <v>7.049999999999996</v>
       </c>
       <c r="K257" t="n">
-        <v>-22.35294117647059</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L257" t="n">
         <v>6.07900000000001</v>
@@ -13558,7 +13580,7 @@
         <v>7.169999999999996</v>
       </c>
       <c r="K258" t="n">
-        <v>-4.255319148936181</v>
+        <v>2.439024390244072</v>
       </c>
       <c r="L258" t="n">
         <v>6.089000000000011</v>
@@ -13609,7 +13631,7 @@
         <v>7.289999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>-16.1904761904762</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L259" t="n">
         <v>6.078000000000011</v>
@@ -13660,7 +13682,7 @@
         <v>7.349999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>-9.09090909090915</v>
+        <v>-18.51851851851868</v>
       </c>
       <c r="L260" t="n">
         <v>6.068000000000011</v>
@@ -13711,7 +13733,7 @@
         <v>7.459999999999996</v>
       </c>
       <c r="K261" t="n">
-        <v>5.172413793103498</v>
+        <v>8.1967213114754</v>
       </c>
       <c r="L261" t="n">
         <v>6.069000000000011</v>
@@ -13762,7 +13784,7 @@
         <v>7.619999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>-2.400000000000022</v>
+        <v>-18.91891891891889</v>
       </c>
       <c r="L262" t="n">
         <v>6.058000000000011</v>
@@ -13813,7 +13835,7 @@
         <v>7.619999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>-2.400000000000022</v>
+        <v>-15.49295774647892</v>
       </c>
       <c r="L263" t="n">
         <v>6.044000000000011</v>
@@ -13864,7 +13886,7 @@
         <v>7.679999999999996</v>
       </c>
       <c r="K264" t="n">
-        <v>-5.785123966942177</v>
+        <v>7.462686567164163</v>
       </c>
       <c r="L264" t="n">
         <v>6.039000000000011</v>
@@ -13915,7 +13937,7 @@
         <v>7.709999999999996</v>
       </c>
       <c r="K265" t="n">
-        <v>-2.439024390243924</v>
+        <v>10.14492753623193</v>
       </c>
       <c r="L265" t="n">
         <v>6.047000000000012</v>
@@ -13966,7 +13988,7 @@
         <v>7.729999999999996</v>
       </c>
       <c r="K266" t="n">
-        <v>-2.439024390243853</v>
+        <v>11.76470588235296</v>
       </c>
       <c r="L266" t="n">
         <v>6.052000000000012</v>
@@ -14017,7 +14039,7 @@
         <v>7.729999999999996</v>
       </c>
       <c r="K267" t="n">
-        <v>-5.882352941176427</v>
+        <v>-7.142857142857154</v>
       </c>
       <c r="L267" t="n">
         <v>6.060000000000011</v>
@@ -14068,7 +14090,7 @@
         <v>7.729999999999996</v>
       </c>
       <c r="K268" t="n">
-        <v>5.66037735849062</v>
+        <v>18.18181818181822</v>
       </c>
       <c r="L268" t="n">
         <v>6.056000000000012</v>
@@ -14119,7 +14141,7 @@
         <v>7.739999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>-4.08163265306123</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L269" t="n">
         <v>6.063000000000011</v>
@@ -14170,7 +14192,7 @@
         <v>7.749999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>-8.510638297872353</v>
+        <v>-31.03448275862054</v>
       </c>
       <c r="L270" t="n">
         <v>6.065000000000012</v>
@@ -14221,7 +14243,7 @@
         <v>7.769999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>-6.250000000000059</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L271" t="n">
         <v>6.058000000000012</v>
@@ -14272,7 +14294,7 @@
         <v>7.769999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>-2.173913043478313</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L272" t="n">
         <v>6.067000000000013</v>
@@ -14323,7 +14345,7 @@
         <v>7.769999999999997</v>
       </c>
       <c r="K273" t="n">
-        <v>-5.617977528089869</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>6.076000000000013</v>
@@ -14374,7 +14396,7 @@
         <v>7.769999999999997</v>
       </c>
       <c r="K274" t="n">
-        <v>-2.32558139534889</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>6.079000000000013</v>
@@ -14425,7 +14447,7 @@
         <v>7.769999999999997</v>
       </c>
       <c r="K275" t="n">
-        <v>10.5263157894737</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L275" t="n">
         <v>6.079000000000013</v>
@@ -14476,7 +14498,7 @@
         <v>7.769999999999997</v>
       </c>
       <c r="K276" t="n">
-        <v>9.333333333333371</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L276" t="n">
         <v>6.081000000000014</v>
@@ -14527,7 +14549,7 @@
         <v>7.789999999999997</v>
       </c>
       <c r="K277" t="n">
-        <v>16.21621621621621</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L277" t="n">
         <v>6.085000000000014</v>
@@ -14578,7 +14600,7 @@
         <v>7.799999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>-1.58730158730169</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L278" t="n">
         <v>6.088000000000014</v>
@@ -14629,7 +14651,7 @@
         <v>7.809999999999999</v>
       </c>
       <c r="K279" t="n">
-        <v>23.076923076923</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L279" t="n">
         <v>6.093000000000015</v>
@@ -14680,7 +14702,7 @@
         <v>7.809999999999999</v>
       </c>
       <c r="K280" t="n">
-        <v>13.0434782608696</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L280" t="n">
         <v>6.097000000000015</v>
@@ -14731,7 +14753,7 @@
         <v>7.819999999999999</v>
       </c>
       <c r="K281" t="n">
-        <v>-11.11111111111106</v>
+        <v>59.99999999999858</v>
       </c>
       <c r="L281" t="n">
         <v>6.100000000000014</v>
@@ -14782,7 +14804,7 @@
         <v>7.859999999999999</v>
       </c>
       <c r="K282" t="n">
-        <v>66.66666666666617</v>
+        <v>77.77777777777668</v>
       </c>
       <c r="L282" t="n">
         <v>6.107000000000014</v>
@@ -14833,7 +14855,7 @@
         <v>7.899999999999999</v>
       </c>
       <c r="K283" t="n">
-        <v>71.42857142857098</v>
+        <v>84.61538461538377</v>
       </c>
       <c r="L283" t="n">
         <v>6.118000000000014</v>
@@ -14884,7 +14906,7 @@
         <v>7.909999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>56.52173913043458</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L284" t="n">
         <v>6.128000000000013</v>
@@ -14935,7 +14957,7 @@
         <v>7.909999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>49.99999999999978</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L285" t="n">
         <v>6.138000000000012</v>
@@ -14986,7 +15008,7 @@
         <v>7.919999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>57.89473684210403</v>
+        <v>53.84615384615269</v>
       </c>
       <c r="L286" t="n">
         <v>6.147000000000011</v>
@@ -15037,7 +15059,7 @@
         <v>7.94</v>
       </c>
       <c r="K287" t="n">
-        <v>61.90476190476082</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L287" t="n">
         <v>6.156000000000011</v>
@@ -15088,7 +15110,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>13.33333333333319</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>6.157000000000012</v>
@@ -15139,7 +15161,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>36.8421052631578</v>
+        <v>29.03225806451604</v>
       </c>
       <c r="L289" t="n">
         <v>6.166000000000011</v>
@@ -15190,7 +15212,7 @@
         <v>8.209999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>8.695652173913018</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L290" t="n">
         <v>6.166000000000011</v>
@@ -15241,7 +15263,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>2.222222222222165</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L291" t="n">
         <v>6.16400000000001</v>
@@ -15292,7 +15314,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>2.222222222222165</v>
+        <v>-31.25000000000014</v>
       </c>
       <c r="L292" t="n">
         <v>6.158000000000011</v>
@@ -15343,7 +15365,7 @@
         <v>8.23</v>
       </c>
       <c r="K293" t="n">
-        <v>4.347826086956589</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L293" t="n">
         <v>6.149000000000011</v>
@@ -15394,7 +15416,7 @@
         <v>8.23</v>
       </c>
       <c r="K294" t="n">
-        <v>4.347826086956589</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L294" t="n">
         <v>6.141000000000011</v>
@@ -15445,7 +15467,7 @@
         <v>8.330000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>-14.28571428571417</v>
+        <v>-41.46341463414604</v>
       </c>
       <c r="L295" t="n">
         <v>6.123000000000012</v>
@@ -15496,7 +15518,7 @@
         <v>8.330000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-14.28571428571417</v>
+        <v>-48.71794871794852</v>
       </c>
       <c r="L296" t="n">
         <v>6.106000000000012</v>
@@ -15547,7 +15569,7 @@
         <v>8.410000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-3.225806451612954</v>
+        <v>-5.263157894736929</v>
       </c>
       <c r="L297" t="n">
         <v>6.095000000000011</v>
@@ -15598,7 +15620,7 @@
         <v>8.410000000000002</v>
       </c>
       <c r="K298" t="n">
-        <v>-1.639344262295037</v>
+        <v>-37.93103448275838</v>
       </c>
       <c r="L298" t="n">
         <v>6.093000000000012</v>
@@ -15649,7 +15671,7 @@
         <v>8.420000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>-1.639344262295185</v>
+        <v>-4.761904761905024</v>
       </c>
       <c r="L299" t="n">
         <v>6.083000000000011</v>
@@ -15700,7 +15722,7 @@
         <v>8.490000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>8.823529411764607</v>
+        <v>25.92592592592573</v>
       </c>
       <c r="L300" t="n">
         <v>6.089000000000011</v>
@@ -15751,7 +15773,7 @@
         <v>8.510000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>4.347826086956538</v>
+        <v>17.24137931034491</v>
       </c>
       <c r="L301" t="n">
         <v>6.094000000000012</v>
@@ -15802,7 +15824,7 @@
         <v>8.510000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>-1.538461538461499</v>
+        <v>14.28571428571424</v>
       </c>
       <c r="L302" t="n">
         <v>6.099000000000012</v>
@@ -15853,7 +15875,7 @@
         <v>8.540000000000003</v>
       </c>
       <c r="K303" t="n">
-        <v>-12.49999999999993</v>
+        <v>3.225806451612811</v>
       </c>
       <c r="L303" t="n">
         <v>6.100000000000011</v>
@@ -15904,7 +15926,7 @@
         <v>8.570000000000004</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.060606060606015</v>
+        <v>58.33333333333308</v>
       </c>
       <c r="L304" t="n">
         <v>6.104000000000012</v>
@@ -15955,7 +15977,7 @@
         <v>8.720000000000004</v>
       </c>
       <c r="K305" t="n">
-        <v>-23.45679012345667</v>
+        <v>-2.564102564102494</v>
       </c>
       <c r="L305" t="n">
         <v>6.103000000000012</v>
@@ -16006,7 +16028,7 @@
         <v>8.720000000000004</v>
       </c>
       <c r="K306" t="n">
-        <v>-22.49999999999982</v>
+        <v>-29.03225806451587</v>
       </c>
       <c r="L306" t="n">
         <v>6.102000000000012</v>
@@ -16057,7 +16079,7 @@
         <v>8.840000000000003</v>
       </c>
       <c r="K307" t="n">
-        <v>-8.888888888888859</v>
+        <v>6.976744186046544</v>
       </c>
       <c r="L307" t="n">
         <v>6.105000000000011</v>
@@ -16108,7 +16130,7 @@
         <v>8.840000000000003</v>
       </c>
       <c r="K308" t="n">
-        <v>1.234567901234535</v>
+        <v>4.761904761904852</v>
       </c>
       <c r="L308" t="n">
         <v>6.108000000000011</v>
@@ -16159,7 +16181,7 @@
         <v>8.870000000000005</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.66666666666661</v>
+        <v>-21.05263157894725</v>
       </c>
       <c r="L309" t="n">
         <v>6.107000000000012</v>
@@ -16210,7 +16232,7 @@
         <v>8.880000000000004</v>
       </c>
       <c r="K310" t="n">
-        <v>-1.492537313432925</v>
+        <v>-13.5135135135136</v>
       </c>
       <c r="L310" t="n">
         <v>6.100000000000011</v>
@@ -16261,7 +16283,7 @@
         <v>8.880000000000004</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-13.5135135135136</v>
       </c>
       <c r="L311" t="n">
         <v>6.095000000000011</v>
@@ -16312,7 +16334,7 @@
         <v>8.880000000000004</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-5.882352941176578</v>
       </c>
       <c r="L312" t="n">
         <v>6.090000000000011</v>
@@ -16363,7 +16385,7 @@
         <v>8.890000000000004</v>
       </c>
       <c r="K313" t="n">
-        <v>-3.030303030303084</v>
+        <v>-18.75000000000014</v>
       </c>
       <c r="L313" t="n">
         <v>6.087000000000011</v>
@@ -16414,7 +16436,7 @@
         <v>8.900000000000004</v>
       </c>
       <c r="K314" t="n">
-        <v>-4.477611940298521</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L314" t="n">
         <v>6.080000000000012</v>
@@ -16465,7 +16487,7 @@
         <v>8.910000000000004</v>
       </c>
       <c r="K315" t="n">
-        <v>13.79310344827583</v>
+        <v>47.36842105263162</v>
       </c>
       <c r="L315" t="n">
         <v>6.089000000000011</v>
@@ -16516,7 +16538,7 @@
         <v>8.910000000000004</v>
       </c>
       <c r="K316" t="n">
-        <v>13.79310344827583</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L316" t="n">
         <v>6.098000000000011</v>
@@ -16567,7 +16589,7 @@
         <v>8.920000000000003</v>
       </c>
       <c r="K317" t="n">
-        <v>1.960784313725442</v>
+        <v>-25.00000000000055</v>
       </c>
       <c r="L317" t="n">
         <v>6.096000000000012</v>
@@ -16618,7 +16640,7 @@
         <v>8.920000000000003</v>
       </c>
       <c r="K318" t="n">
-        <v>1.960784313725442</v>
+        <v>20</v>
       </c>
       <c r="L318" t="n">
         <v>6.094000000000012</v>
@@ -16720,7 +16742,7 @@
         <v>8.930000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>-13.63636363636351</v>
+        <v>20.00000000000178</v>
       </c>
       <c r="L320" t="n">
         <v>6.096000000000012</v>
@@ -16771,7 +16793,7 @@
         <v>8.940000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>-6.976744186046544</v>
+        <v>33.33333333333481</v>
       </c>
       <c r="L321" t="n">
         <v>6.098000000000011</v>
@@ -16822,7 +16844,7 @@
         <v>8.940000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>-6.976744186046544</v>
+        <v>60.00000000000178</v>
       </c>
       <c r="L322" t="n">
         <v>6.10000000000001</v>
@@ -16873,7 +16895,7 @@
         <v>9.020000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>16.66666666666666</v>
+        <v>100.0000000000007</v>
       </c>
       <c r="L323" t="n">
         <v>6.11100000000001</v>
@@ -16924,7 +16946,7 @@
         <v>9.020000000000003</v>
       </c>
       <c r="K324" t="n">
-        <v>11.11111111111109</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L324" t="n">
         <v>6.12300000000001</v>
@@ -16975,7 +16997,7 @@
         <v>9.020000000000003</v>
       </c>
       <c r="K325" t="n">
-        <v>66.66666666666697</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L325" t="n">
         <v>6.13400000000001</v>
@@ -17026,7 +17048,7 @@
         <v>9.050000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>69.69696969696982</v>
+        <v>100</v>
       </c>
       <c r="L326" t="n">
         <v>6.14800000000001</v>
@@ -17077,7 +17099,7 @@
         <v>9.050000000000004</v>
       </c>
       <c r="K327" t="n">
-        <v>52.38095238095232</v>
+        <v>100</v>
       </c>
       <c r="L327" t="n">
         <v>6.16100000000001</v>
@@ -17128,7 +17150,7 @@
         <v>9.070000000000004</v>
       </c>
       <c r="K328" t="n">
-        <v>39.13043478260856</v>
+        <v>73.33333333333337</v>
       </c>
       <c r="L328" t="n">
         <v>6.17200000000001</v>
@@ -17179,7 +17201,7 @@
         <v>9.080000000000004</v>
       </c>
       <c r="K329" t="n">
-        <v>52.38095238095276</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L329" t="n">
         <v>6.18200000000001</v>
@@ -17230,7 +17252,7 @@
         <v>9.110000000000003</v>
       </c>
       <c r="K330" t="n">
-        <v>56.52173913043546</v>
+        <v>64.70588235294139</v>
       </c>
       <c r="L330" t="n">
         <v>6.19400000000001</v>
@@ -17281,7 +17303,7 @@
         <v>9.120000000000005</v>
       </c>
       <c r="K331" t="n">
-        <v>50</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L331" t="n">
         <v>6.20400000000001</v>
@@ -17332,7 +17354,7 @@
         <v>9.120000000000005</v>
       </c>
       <c r="K332" t="n">
-        <v>50</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L332" t="n">
         <v>6.214000000000011</v>
@@ -17383,7 +17405,7 @@
         <v>9.200000000000005</v>
       </c>
       <c r="K333" t="n">
-        <v>16.12903225806443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>6.20800000000001</v>
@@ -17434,7 +17456,7 @@
         <v>9.280000000000005</v>
       </c>
       <c r="K334" t="n">
-        <v>36.84210526315773</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L334" t="n">
         <v>6.21000000000001</v>
@@ -17485,7 +17507,7 @@
         <v>9.290000000000006</v>
       </c>
       <c r="K335" t="n">
-        <v>36.8421052631578</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>6.21300000000001</v>
@@ -17536,7 +17558,7 @@
         <v>9.360000000000007</v>
       </c>
       <c r="K336" t="n">
-        <v>15.55555555555552</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L336" t="n">
         <v>6.206000000000008</v>
@@ -17587,7 +17609,7 @@
         <v>9.430000000000007</v>
       </c>
       <c r="K337" t="n">
-        <v>25.49019607843136</v>
+        <v>5.555555555555638</v>
       </c>
       <c r="L337" t="n">
         <v>6.206000000000008</v>
@@ -17638,7 +17660,7 @@
         <v>9.480000000000008</v>
       </c>
       <c r="K338" t="n">
-        <v>32.14285714285702</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L338" t="n">
         <v>6.213000000000009</v>
@@ -17689,7 +17711,7 @@
         <v>9.530000000000008</v>
       </c>
       <c r="K339" t="n">
-        <v>21.31147540983603</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>6.216000000000008</v>
@@ -17740,7 +17762,7 @@
         <v>9.640000000000008</v>
       </c>
       <c r="K340" t="n">
-        <v>32.39436619718283</v>
+        <v>23.07692307692296</v>
       </c>
       <c r="L340" t="n">
         <v>6.227000000000008</v>
@@ -17791,7 +17813,7 @@
         <v>9.770000000000007</v>
       </c>
       <c r="K341" t="n">
-        <v>42.16867469879496</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L341" t="n">
         <v>6.252000000000008</v>
@@ -17842,7 +17864,7 @@
         <v>9.770000000000007</v>
       </c>
       <c r="K342" t="n">
-        <v>42.16867469879496</v>
+        <v>57.89473684210507</v>
       </c>
       <c r="L342" t="n">
         <v>6.277000000000008</v>
@@ -17893,7 +17915,7 @@
         <v>9.820000000000007</v>
       </c>
       <c r="K343" t="n">
-        <v>39.99999999999972</v>
+        <v>55.55555555555524</v>
       </c>
       <c r="L343" t="n">
         <v>6.315000000000007</v>
@@ -17944,7 +17966,7 @@
         <v>9.830000000000007</v>
       </c>
       <c r="K344" t="n">
-        <v>38.27160493827137</v>
+        <v>51.85185185185165</v>
       </c>
       <c r="L344" t="n">
         <v>6.344000000000008</v>
@@ -17995,7 +18017,7 @@
         <v>9.860000000000007</v>
       </c>
       <c r="K345" t="n">
-        <v>33.33333333333323</v>
+        <v>64.00000000000006</v>
       </c>
       <c r="L345" t="n">
         <v>6.369000000000009</v>
@@ -18046,7 +18068,7 @@
         <v>10.01000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>10.4166666666666</v>
+        <v>17.24137931034477</v>
       </c>
       <c r="L346" t="n">
         <v>6.386000000000008</v>
@@ -18097,7 +18119,7 @@
         <v>10.01000000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>10.4166666666666</v>
+        <v>9.433962264150923</v>
       </c>
       <c r="L347" t="n">
         <v>6.396000000000008</v>
@@ -18148,7 +18170,7 @@
         <v>10.01000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>12.76595744680848</v>
+        <v>20.83333333333332</v>
       </c>
       <c r="L348" t="n">
         <v>6.401000000000008</v>
@@ -18199,7 +18221,7 @@
         <v>10.01000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>13.97849462365585</v>
+        <v>-2.702702702702651</v>
       </c>
       <c r="L349" t="n">
         <v>6.411000000000007</v>
@@ -18250,7 +18272,7 @@
         <v>10.02000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>9.890109890109834</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L350" t="n">
         <v>6.409000000000006</v>
@@ -18301,7 +18323,7 @@
         <v>10.03000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>12.0879120879121</v>
+        <v>-53.84615384615377</v>
       </c>
       <c r="L351" t="n">
         <v>6.395000000000006</v>
@@ -18352,7 +18374,7 @@
         <v>10.03000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>12.0879120879121</v>
+        <v>-90.47619047619064</v>
       </c>
       <c r="L352" t="n">
         <v>6.381000000000006</v>
@@ -18403,7 +18425,7 @@
         <v>10.03000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>22.89156626506024</v>
+        <v>-90.00000000000018</v>
       </c>
       <c r="L353" t="n">
         <v>6.362000000000006</v>
@@ -18454,7 +18476,7 @@
         <v>10.05000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>11.68831168831162</v>
+        <v>-89.47368421052614</v>
       </c>
       <c r="L354" t="n">
         <v>6.342000000000007</v>
@@ -18505,7 +18527,7 @@
         <v>10.07000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>12.82051282051276</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>6.327000000000007</v>
@@ -18556,7 +18578,7 @@
         <v>10.17000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>8.641975308642005</v>
+        <v>-62.49999999999972</v>
       </c>
       <c r="L356" t="n">
         <v>6.317000000000007</v>
@@ -18607,7 +18629,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>10.84337349397589</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L357" t="n">
         <v>6.316000000000007</v>
@@ -18658,7 +18680,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K358" t="n">
-        <v>5.128205128205137</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L358" t="n">
         <v>6.315000000000007</v>
@@ -18709,7 +18731,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K359" t="n">
-        <v>12.32876712328767</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>6.314000000000009</v>
@@ -18760,7 +18782,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>-3.225806451612839</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L360" t="n">
         <v>6.314000000000009</v>
@@ -18811,7 +18833,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>-30.61224489795906</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L361" t="n">
         <v>6.313000000000009</v>
@@ -18862,7 +18884,7 @@
         <v>10.26000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>-30.61224489795906</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L362" t="n">
         <v>6.31200000000001</v>
@@ -18913,7 +18935,7 @@
         <v>10.28000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>-47.82608695652159</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L363" t="n">
         <v>6.30900000000001</v>
@@ -18964,7 +18986,7 @@
         <v>10.28000000000001</v>
       </c>
       <c r="K364" t="n">
-        <v>-46.66666666666655</v>
+        <v>-14.28571428571435</v>
       </c>
       <c r="L364" t="n">
         <v>6.30800000000001</v>
@@ -19015,7 +19037,7 @@
         <v>10.31000000000001</v>
       </c>
       <c r="K365" t="n">
-        <v>-46.66666666666656</v>
+        <v>28.57142857142748</v>
       </c>
       <c r="L365" t="n">
         <v>6.302000000000009</v>
@@ -19066,7 +19088,7 @@
         <v>10.35000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>-5.882352941176578</v>
+        <v>-11.11111111111166</v>
       </c>
       <c r="L366" t="n">
         <v>6.310000000000009</v>
@@ -19117,7 +19139,7 @@
         <v>10.35000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>-5.882352941176578</v>
+        <v>-11.11111111111166</v>
       </c>
       <c r="L367" t="n">
         <v>6.30900000000001</v>
@@ -19168,7 +19190,7 @@
         <v>10.46000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>-28.8888888888888</v>
+        <v>-59.99999999999973</v>
       </c>
       <c r="L368" t="n">
         <v>6.297000000000009</v>
@@ -19219,7 +19241,7 @@
         <v>10.56000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>-5.454545454545492</v>
+        <v>-6.666666666666806</v>
       </c>
       <c r="L369" t="n">
         <v>6.29500000000001</v>
@@ -19270,7 +19292,7 @@
         <v>10.66000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>-18.75</v>
+        <v>-30</v>
       </c>
       <c r="L370" t="n">
         <v>6.283000000000009</v>
@@ -19321,7 +19343,7 @@
         <v>10.74000000000001</v>
       </c>
       <c r="K371" t="n">
-        <v>-7.042253521126727</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L371" t="n">
         <v>6.279000000000009</v>
@@ -19372,7 +19394,7 @@
         <v>10.86000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>-20.48192771084337</v>
+        <v>-24.13793103448277</v>
       </c>
       <c r="L372" t="n">
         <v>6.263000000000009</v>
@@ -19423,7 +19445,7 @@
         <v>10.98000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>-5.263157894736818</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L373" t="n">
         <v>6.261000000000008</v>
@@ -19474,7 +19496,7 @@
         <v>11.12000000000001</v>
       </c>
       <c r="K374" t="n">
-        <v>-15.88785046728971</v>
+        <v>-16.0493827160494</v>
       </c>
       <c r="L374" t="n">
         <v>6.245000000000009</v>
@@ -19525,7 +19547,7 @@
         <v>11.26000000000001</v>
       </c>
       <c r="K375" t="n">
-        <v>-4.201680672268888</v>
+        <v>-3.296703296703226</v>
       </c>
       <c r="L375" t="n">
         <v>6.246000000000009</v>
@@ -19576,7 +19598,7 @@
         <v>11.28000000000001</v>
       </c>
       <c r="K376" t="n">
-        <v>2.702702702702642</v>
+        <v>-5.376344086021488</v>
       </c>
       <c r="L376" t="n">
         <v>6.241000000000009</v>
@@ -19627,7 +19649,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>-7.692307692307693</v>
+        <v>4.761904761904767</v>
       </c>
       <c r="L377" t="n">
         <v>6.234000000000009</v>
@@ -19678,7 +19700,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K378" t="n">
-        <v>-7.692307692307693</v>
+        <v>-8.108108108108054</v>
       </c>
       <c r="L378" t="n">
         <v>6.238000000000008</v>
@@ -19729,7 +19751,7 @@
         <v>11.43000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>-17.94871794871795</v>
+        <v>-11.68831168831168</v>
       </c>
       <c r="L379" t="n">
         <v>6.219000000000008</v>
@@ -19780,7 +19802,7 @@
         <v>11.46000000000001</v>
       </c>
       <c r="K380" t="n">
-        <v>-20</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L380" t="n">
         <v>6.207000000000008</v>
@@ -19831,7 +19853,7 @@
         <v>11.46000000000001</v>
       </c>
       <c r="K381" t="n">
-        <v>-20</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L381" t="n">
         <v>6.187000000000007</v>
@@ -19882,7 +19904,7 @@
         <v>11.61000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>-6.666666666666648</v>
+        <v>-7.936507936507899</v>
       </c>
       <c r="L382" t="n">
         <v>6.194000000000008</v>
@@ -19933,7 +19955,7 @@
         <v>11.61000000000001</v>
       </c>
       <c r="K383" t="n">
-        <v>-5.263157894736796</v>
+        <v>18.36734693877565</v>
       </c>
       <c r="L383" t="n">
         <v>6.189000000000009</v>
@@ -19984,7 +20006,7 @@
         <v>11.75000000000001</v>
       </c>
       <c r="K384" t="n">
-        <v>-14.28571428571428</v>
+        <v>-38.7755102040817</v>
       </c>
       <c r="L384" t="n">
         <v>6.184000000000009</v>
@@ -20035,7 +20057,7 @@
         <v>11.88000000000001</v>
       </c>
       <c r="K385" t="n">
-        <v>-3.184713375796167</v>
+        <v>-6.666666666666657</v>
       </c>
       <c r="L385" t="n">
         <v>6.178000000000009</v>
@@ -20086,7 +20108,7 @@
         <v>12.01000000000001</v>
       </c>
       <c r="K386" t="n">
-        <v>-13.25301204819275</v>
+        <v>-21.12676056338031</v>
       </c>
       <c r="L386" t="n">
         <v>6.161000000000009</v>
@@ -20137,7 +20159,7 @@
         <v>12.09000000000001</v>
       </c>
       <c r="K387" t="n">
-        <v>-8.045977011494234</v>
+        <v>-8.860759493670912</v>
       </c>
       <c r="L387" t="n">
         <v>6.154000000000009</v>
@@ -20188,7 +20210,7 @@
         <v>12.16000000000001</v>
       </c>
       <c r="K388" t="n">
-        <v>-5.882352941176499</v>
+        <v>-1.369863013698718</v>
       </c>
       <c r="L388" t="n">
         <v>6.140000000000009</v>
@@ -20239,7 +20261,7 @@
         <v>12.21000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>-9.090909090909047</v>
+        <v>9.33333333333335</v>
       </c>
       <c r="L389" t="n">
         <v>6.144000000000008</v>
@@ -20290,7 +20312,7 @@
         <v>12.23000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>-4.458598726114657</v>
+        <v>6.493506493506445</v>
       </c>
       <c r="L390" t="n">
         <v>6.149000000000008</v>
@@ -20341,7 +20363,7 @@
         <v>12.54000000000001</v>
       </c>
       <c r="K391" t="n">
-        <v>-25.55555555555552</v>
+        <v>-44.08602150537629</v>
       </c>
       <c r="L391" t="n">
         <v>6.123000000000009</v>
@@ -20392,7 +20414,7 @@
         <v>12.85000000000001</v>
       </c>
       <c r="K392" t="n">
-        <v>-1.507537688442222</v>
+        <v>-8.064516129032299</v>
       </c>
       <c r="L392" t="n">
         <v>6.113000000000008</v>
@@ -20443,7 +20465,7 @@
         <v>12.89000000000001</v>
       </c>
       <c r="K393" t="n">
-        <v>-9.947643979057611</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>6.099000000000008</v>
@@ -20494,7 +20516,7 @@
         <v>12.91000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-3.910614525139633</v>
+        <v>-14.56310679611649</v>
       </c>
       <c r="L394" t="n">
         <v>6.097000000000008</v>
@@ -20545,7 +20567,7 @@
         <v>12.93000000000001</v>
       </c>
       <c r="K395" t="n">
-        <v>-13.7724550898204</v>
+        <v>-4.347826086956534</v>
       </c>
       <c r="L395" t="n">
         <v>6.080000000000008</v>
@@ -20596,7 +20618,7 @@
         <v>12.97000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>-14.79289940828404</v>
+        <v>-18.18181818181825</v>
       </c>
       <c r="L396" t="n">
         <v>6.072000000000008</v>
@@ -20647,7 +20669,7 @@
         <v>13.13000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>-21.31147540983612</v>
+        <v>-25.77319587628874</v>
       </c>
       <c r="L397" t="n">
         <v>6.040000000000008</v>
@@ -20698,7 +20720,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>-11.00000000000004</v>
+        <v>-11.92660550458727</v>
       </c>
       <c r="L398" t="n">
         <v>6.032000000000007</v>
@@ -20749,7 +20771,7 @@
         <v>13.32000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-5.820105820105841</v>
+        <v>-11.92660550458721</v>
       </c>
       <c r="L399" t="n">
         <v>6.017000000000008</v>
@@ -20800,7 +20822,7 @@
         <v>13.32000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>-4.301075268817214</v>
+        <v>23.07692307692317</v>
       </c>
       <c r="L400" t="n">
         <v>6.004000000000007</v>
@@ -20851,7 +20873,7 @@
         <v>13.43000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>-9.644670050761446</v>
+        <v>-41.37931034482774</v>
       </c>
       <c r="L401" t="n">
         <v>6.011000000000006</v>
@@ -20902,7 +20924,7 @@
         <v>13.44000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>-19.12568306010933</v>
+        <v>-38.18181818181825</v>
       </c>
       <c r="L402" t="n">
         <v>5.986000000000006</v>
@@ -20953,7 +20975,7 @@
         <v>13.46000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-20.00000000000003</v>
+        <v>-38.18181818181825</v>
       </c>
       <c r="L403" t="n">
         <v>5.963000000000006</v>
@@ -21004,7 +21026,7 @@
         <v>13.47000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-12.79069767441861</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L404" t="n">
         <v>5.943000000000007</v>
@@ -21055,7 +21077,7 @@
         <v>13.52000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-24.39024390243904</v>
+        <v>-34.54545454545441</v>
       </c>
       <c r="L405" t="n">
         <v>5.920000000000007</v>
@@ -21106,7 +21128,7 @@
         <v>13.52000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-17.88079470198675</v>
+        <v>-7.692307692307517</v>
       </c>
       <c r="L406" t="n">
         <v>5.901000000000007</v>
@@ -21157,7 +21179,7 @@
         <v>13.53000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-23.61111111111114</v>
+        <v>-82.60869565217355</v>
       </c>
       <c r="L407" t="n">
         <v>5.899000000000007</v>
@@ -21208,7 +21230,7 @@
         <v>13.67000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>-8.609271523178823</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L408" t="n">
         <v>5.894000000000008</v>
@@ -21259,7 +21281,7 @@
         <v>13.67000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>-12.32876712328775</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L409" t="n">
         <v>5.891000000000008</v>
@@ -21310,7 +21332,7 @@
         <v>13.78</v>
       </c>
       <c r="K410" t="n">
-        <v>-17.41935483870972</v>
+        <v>-8.571428571428442</v>
       </c>
       <c r="L410" t="n">
         <v>5.877000000000008</v>
@@ -21361,7 +21383,7 @@
         <v>13.79000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>2.399999999999956</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L411" t="n">
         <v>5.873000000000007</v>
@@ -21412,7 +21434,7 @@
         <v>13.79000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>-29.78723404255329</v>
+        <v>-3.030303030303234</v>
       </c>
       <c r="L412" t="n">
         <v>5.870000000000006</v>
@@ -21463,7 +21485,7 @@
         <v>13.89000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>-13.99999999999997</v>
+        <v>19.04761904761899</v>
       </c>
       <c r="L413" t="n">
         <v>5.879000000000007</v>
@@ -21514,7 +21536,7 @@
         <v>13.99000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>-20.3703703703704</v>
+        <v>6.382978723404086</v>
       </c>
       <c r="L414" t="n">
         <v>5.877000000000006</v>
@@ -21565,7 +21587,7 @@
         <v>14.04000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>-13.51351351351343</v>
+        <v>15.38461538461531</v>
       </c>
       <c r="L415" t="n">
         <v>5.885000000000006</v>
@@ -21616,7 +21638,7 @@
         <v>14.09000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>-5.357142857142801</v>
+        <v>21.42857142857129</v>
       </c>
       <c r="L416" t="n">
         <v>5.898000000000005</v>
@@ -21667,7 +21689,7 @@
         <v>14.09000000000001</v>
       </c>
       <c r="K417" t="n">
-        <v>10.41666666666667</v>
+        <v>-4.761904761904601</v>
       </c>
       <c r="L417" t="n">
         <v>5.910000000000005</v>
@@ -21718,7 +21740,7 @@
         <v>14.13000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>-13.25301204819264</v>
+        <v>-13.04347826086936</v>
       </c>
       <c r="L418" t="n">
         <v>5.904000000000005</v>
@@ -21769,7 +21791,7 @@
         <v>14.17000000000001</v>
       </c>
       <c r="K419" t="n">
-        <v>-5.882352941176427</v>
+        <v>23.0769230769228</v>
       </c>
       <c r="L419" t="n">
         <v>5.902000000000005</v>
@@ -21820,7 +21842,7 @@
         <v>14.22000000000001</v>
       </c>
       <c r="K420" t="n">
-        <v>-11.11111111111102</v>
+        <v>11.62790697674426</v>
       </c>
       <c r="L420" t="n">
         <v>5.906000000000006</v>
@@ -21871,7 +21893,7 @@
         <v>14.22000000000001</v>
       </c>
       <c r="K421" t="n">
-        <v>1.265822784810208</v>
+        <v>11.62790697674426</v>
       </c>
       <c r="L421" t="n">
         <v>5.911000000000007</v>
@@ -21922,7 +21944,7 @@
         <v>14.28000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>9.523809523809513</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L422" t="n">
         <v>5.922000000000006</v>
@@ -21973,7 +21995,7 @@
         <v>14.29000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>13.25301204819267</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L423" t="n">
         <v>5.924000000000007</v>
@@ -22024,7 +22046,7 @@
         <v>14.29000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>12.19512195121944</v>
+        <v>27.99999999999996</v>
       </c>
       <c r="L424" t="n">
         <v>5.936000000000006</v>
@@ -22075,7 +22097,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K425" t="n">
-        <v>20.5128205128205</v>
+        <v>14.28571428571459</v>
       </c>
       <c r="L425" t="n">
         <v>5.944000000000006</v>
@@ -22126,7 +22148,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>20.5128205128205</v>
+        <v>14.28571428571459</v>
       </c>
       <c r="L426" t="n">
         <v>5.947000000000005</v>
@@ -22177,7 +22199,7 @@
         <v>14.32000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>21.51898734177212</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L427" t="n">
         <v>5.952000000000005</v>
@@ -22228,7 +22250,7 @@
         <v>14.32000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>4.615384615384639</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L428" t="n">
         <v>5.961000000000006</v>
@@ -22279,7 +22301,7 @@
         <v>14.32000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>4.615384615384639</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L429" t="n">
         <v>5.966000000000006</v>
@@ -22330,7 +22352,7 @@
         <v>14.34000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>28.57142857142832</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L430" t="n">
         <v>5.978000000000005</v>
@@ -22381,7 +22403,7 @@
         <v>14.35000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>28.57142857142857</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L431" t="n">
         <v>5.989000000000005</v>
@@ -22432,7 +22454,7 @@
         <v>14.39000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>33.33333333333328</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L432" t="n">
         <v>5.998000000000006</v>
@@ -22483,7 +22505,7 @@
         <v>14.43000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>11.11111111111106</v>
+        <v>28.57142857142884</v>
       </c>
       <c r="L433" t="n">
         <v>6.002000000000005</v>
@@ -22534,7 +22556,7 @@
         <v>14.47000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>41.66666666666698</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L434" t="n">
         <v>6.010000000000005</v>
@@ -22585,7 +22607,7 @@
         <v>14.47000000000001</v>
       </c>
       <c r="K435" t="n">
-        <v>34.88372093023275</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L435" t="n">
         <v>6.017000000000005</v>
@@ -22636,7 +22658,7 @@
         <v>14.49000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>20.00000000000027</v>
+        <v>17.64705882352975</v>
       </c>
       <c r="L436" t="n">
         <v>6.022000000000004</v>
@@ -22687,7 +22709,7 @@
         <v>14.53</v>
       </c>
       <c r="K437" t="n">
-        <v>27.27272727272766</v>
+        <v>33.3333333333339</v>
       </c>
       <c r="L437" t="n">
         <v>6.029000000000005</v>
@@ -22738,7 +22760,7 @@
         <v>14.57</v>
       </c>
       <c r="K438" t="n">
-        <v>27.27272727272766</v>
+        <v>12.00000000000027</v>
       </c>
       <c r="L438" t="n">
         <v>6.032000000000005</v>
@@ -22789,7 +22811,7 @@
         <v>14.6</v>
       </c>
       <c r="K439" t="n">
-        <v>25.58139534883741</v>
+        <v>15.38461538461562</v>
       </c>
       <c r="L439" t="n">
         <v>6.038000000000006</v>
@@ -22840,7 +22862,7 @@
         <v>14.61</v>
       </c>
       <c r="K440" t="n">
-        <v>43.5897435897443</v>
+        <v>23.0769230769236</v>
       </c>
       <c r="L440" t="n">
         <v>6.043000000000005</v>
@@ -22891,7 +22913,7 @@
         <v>14.61</v>
       </c>
       <c r="K441" t="n">
-        <v>43.5897435897443</v>
+        <v>9.090909090909495</v>
       </c>
       <c r="L441" t="n">
         <v>6.049000000000006</v>
@@ -22942,7 +22964,7 @@
         <v>14.62</v>
       </c>
       <c r="K442" t="n">
-        <v>35.29411764705942</v>
+        <v>36.84210526315883</v>
       </c>
       <c r="L442" t="n">
         <v>6.052000000000007</v>
@@ -22993,7 +23015,7 @@
         <v>14.62</v>
       </c>
       <c r="K443" t="n">
-        <v>33.33333333333396</v>
+        <v>20.00000000000059</v>
       </c>
       <c r="L443" t="n">
         <v>6.059000000000006</v>
@@ -23044,7 +23066,7 @@
         <v>14.62</v>
       </c>
       <c r="K444" t="n">
-        <v>33.33333333333396</v>
+        <v>20.00000000000059</v>
       </c>
       <c r="L444" t="n">
         <v>6.062000000000007</v>
@@ -23095,7 +23117,7 @@
         <v>14.62</v>
       </c>
       <c r="K445" t="n">
-        <v>31.25000000000038</v>
+        <v>38.46153846153915</v>
       </c>
       <c r="L445" t="n">
         <v>6.065000000000007</v>
@@ -23146,7 +23168,7 @@
         <v>14.62</v>
       </c>
       <c r="K446" t="n">
-        <v>31.25000000000038</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L446" t="n">
         <v>6.070000000000007</v>
@@ -23197,7 +23219,7 @@
         <v>14.62</v>
       </c>
       <c r="K447" t="n">
-        <v>26.6666666666671</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L447" t="n">
         <v>6.071000000000007</v>
@@ -23248,7 +23270,7 @@
         <v>14.66</v>
       </c>
       <c r="K448" t="n">
-        <v>11.76470588235308</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L448" t="n">
         <v>6.072000000000007</v>
@@ -23299,7 +23321,7 @@
         <v>14.71</v>
       </c>
       <c r="K449" t="n">
-        <v>23.07692307692322</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L449" t="n">
         <v>6.075000000000007</v>
@@ -23350,7 +23372,7 @@
         <v>14.8</v>
       </c>
       <c r="K450" t="n">
-        <v>-4.347826086956454</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L450" t="n">
         <v>6.068000000000007</v>
@@ -23401,7 +23423,7 @@
         <v>14.81</v>
       </c>
       <c r="K451" t="n">
-        <v>-4.347826086956454</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L451" t="n">
         <v>6.060000000000008</v>
@@ -23452,7 +23474,7 @@
         <v>14.81</v>
       </c>
       <c r="K452" t="n">
-        <v>-14.28571428571431</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L452" t="n">
         <v>6.051000000000007</v>
@@ -23503,7 +23525,7 @@
         <v>14.81</v>
       </c>
       <c r="K453" t="n">
-        <v>-5.263157894736768</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L453" t="n">
         <v>6.042000000000007</v>
@@ -23554,7 +23576,7 @@
         <v>14.86</v>
       </c>
       <c r="K454" t="n">
-        <v>-2.564102564102529</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L454" t="n">
         <v>6.038000000000008</v>
@@ -23605,7 +23627,7 @@
         <v>14.86</v>
       </c>
       <c r="K455" t="n">
-        <v>-2.564102564102529</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L455" t="n">
         <v>6.034000000000009</v>
@@ -23656,7 +23678,7 @@
         <v>14.86</v>
       </c>
       <c r="K456" t="n">
-        <v>2.702702702702664</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L456" t="n">
         <v>6.03000000000001</v>
@@ -23707,7 +23729,7 @@
         <v>14.86</v>
       </c>
       <c r="K457" t="n">
-        <v>-9.090909090909213</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>6.02600000000001</v>
@@ -23758,7 +23780,7 @@
         <v>14.86</v>
       </c>
       <c r="K458" t="n">
-        <v>3.448275862068902</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L458" t="n">
         <v>6.026000000000011</v>
@@ -23809,7 +23831,7 @@
         <v>14.86</v>
       </c>
       <c r="K459" t="n">
-        <v>-7.692307692307534</v>
+        <v>66.66666666666815</v>
       </c>
       <c r="L459" t="n">
         <v>6.021000000000011</v>
@@ -23860,7 +23882,7 @@
         <v>14.87</v>
       </c>
       <c r="K460" t="n">
-        <v>-7.692307692307876</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L460" t="n">
         <v>6.02600000000001</v>
@@ -23911,7 +23933,7 @@
         <v>14.87</v>
       </c>
       <c r="K461" t="n">
-        <v>-7.692307692307876</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L461" t="n">
         <v>6.03200000000001</v>
@@ -23962,7 +23984,7 @@
         <v>14.88</v>
       </c>
       <c r="K462" t="n">
-        <v>-15.38461538461541</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L462" t="n">
         <v>6.03700000000001</v>
@@ -24013,7 +24035,7 @@
         <v>14.89</v>
       </c>
       <c r="K463" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L463" t="n">
         <v>6.041000000000009</v>
@@ -24064,7 +24086,7 @@
         <v>14.89</v>
       </c>
       <c r="K464" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>6.040000000000008</v>
@@ -24115,7 +24137,7 @@
         <v>14.89</v>
       </c>
       <c r="K465" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>6.039000000000008</v>
@@ -24166,7 +24188,7 @@
         <v>14.89</v>
       </c>
       <c r="K466" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>6.038000000000007</v>
@@ -24217,7 +24239,7 @@
         <v>14.89</v>
       </c>
       <c r="K467" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>6.037000000000007</v>
@@ -24268,7 +24290,7 @@
         <v>14.89</v>
       </c>
       <c r="K468" t="n">
-        <v>-4.347826086956454</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>6.036000000000007</v>
@@ -24319,7 +24341,7 @@
         <v>14.89</v>
       </c>
       <c r="K469" t="n">
-        <v>-33.3333333333335</v>
+        <v>-100</v>
       </c>
       <c r="L469" t="n">
         <v>6.035000000000005</v>
@@ -24370,7 +24392,7 @@
         <v>15</v>
       </c>
       <c r="K470" t="n">
-        <v>-40.00000000000018</v>
+        <v>-99.99999999999932</v>
       </c>
       <c r="L470" t="n">
         <v>6.022000000000006</v>
@@ -24421,7 +24443,7 @@
         <v>15.1</v>
       </c>
       <c r="K471" t="n">
-        <v>10.34482758620671</v>
+        <v>-9.090909090909275</v>
       </c>
       <c r="L471" t="n">
         <v>6.019000000000005</v>
@@ -24472,7 +24494,7 @@
         <v>15.1</v>
       </c>
       <c r="K472" t="n">
-        <v>10.34482758620671</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L472" t="n">
         <v>6.017000000000005</v>
@@ -24523,7 +24545,7 @@
         <v>15.1</v>
       </c>
       <c r="K473" t="n">
-        <v>10.34482758620671</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L473" t="n">
         <v>6.016000000000005</v>
@@ -24574,7 +24596,7 @@
         <v>15.1</v>
       </c>
       <c r="K474" t="n">
-        <v>-8.333333333333519</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L474" t="n">
         <v>6.015000000000005</v>
@@ -24625,7 +24647,7 @@
         <v>15.1</v>
       </c>
       <c r="K475" t="n">
-        <v>-8.333333333333519</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L475" t="n">
         <v>6.014000000000005</v>
@@ -24676,7 +24698,7 @@
         <v>15.14</v>
       </c>
       <c r="K476" t="n">
-        <v>-21.42857142857134</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L476" t="n">
         <v>6.009000000000005</v>
@@ -24727,7 +24749,7 @@
         <v>15.14</v>
       </c>
       <c r="K477" t="n">
-        <v>-21.42857142857134</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L477" t="n">
         <v>6.004000000000005</v>
@@ -24778,7 +24800,7 @@
         <v>15.15</v>
       </c>
       <c r="K478" t="n">
-        <v>-17.24137931034482</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L478" t="n">
         <v>6.000000000000004</v>
@@ -24829,7 +24851,7 @@
         <v>15.15</v>
       </c>
       <c r="K479" t="n">
-        <v>-17.24137931034482</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L479" t="n">
         <v>5.996000000000004</v>
@@ -24880,7 +24902,7 @@
         <v>15.15</v>
       </c>
       <c r="K480" t="n">
-        <v>-21.42857142857134</v>
+        <v>-60</v>
       </c>
       <c r="L480" t="n">
         <v>6.003000000000003</v>
@@ -24931,7 +24953,7 @@
         <v>15.16</v>
       </c>
       <c r="K481" t="n">
-        <v>-17.24137931034482</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L481" t="n">
         <v>6.001000000000003</v>
@@ -24982,7 +25004,7 @@
         <v>15.16</v>
       </c>
       <c r="K482" t="n">
-        <v>-14.28571428571433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L482" t="n">
         <v>5.999000000000004</v>
@@ -25033,7 +25055,7 @@
         <v>15.16</v>
       </c>
       <c r="K483" t="n">
-        <v>-11.11111111111122</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L483" t="n">
         <v>5.997000000000004</v>
@@ -25084,7 +25106,7 @@
         <v>15.16</v>
       </c>
       <c r="K484" t="n">
-        <v>-11.11111111111122</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L484" t="n">
         <v>5.995000000000005</v>
@@ -25135,7 +25157,7 @@
         <v>15.16</v>
       </c>
       <c r="K485" t="n">
-        <v>-11.11111111111122</v>
+        <v>100</v>
       </c>
       <c r="L485" t="n">
         <v>5.993000000000005</v>
@@ -25186,7 +25208,7 @@
         <v>15.19</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L486" t="n">
         <v>5.998000000000005</v>
@@ -25237,7 +25259,7 @@
         <v>15.19</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L487" t="n">
         <v>6.003000000000005</v>
@@ -25288,7 +25310,7 @@
         <v>15.19</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L488" t="n">
         <v>6.007000000000004</v>
@@ -25339,7 +25361,7 @@
         <v>15.21</v>
       </c>
       <c r="K489" t="n">
-        <v>6.249999999999896</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L489" t="n">
         <v>6.013000000000004</v>
@@ -25390,7 +25412,7 @@
         <v>15.21</v>
       </c>
       <c r="K490" t="n">
-        <v>61.90476190476265</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L490" t="n">
         <v>6.019000000000005</v>
@@ -25441,7 +25463,7 @@
         <v>15.28</v>
       </c>
       <c r="K491" t="n">
-        <v>-22.222222222222</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L491" t="n">
         <v>6.017000000000005</v>
@@ -25492,7 +25514,7 @@
         <v>15.28</v>
       </c>
       <c r="K492" t="n">
-        <v>-22.222222222222</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L492" t="n">
         <v>6.015000000000005</v>
@@ -25543,7 +25565,7 @@
         <v>15.35</v>
       </c>
       <c r="K493" t="n">
-        <v>12.00000000000018</v>
+        <v>26.31578947368419</v>
       </c>
       <c r="L493" t="n">
         <v>6.020000000000005</v>
@@ -25594,7 +25616,7 @@
         <v>15.36</v>
       </c>
       <c r="K494" t="n">
-        <v>7.692307692307929</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L494" t="n">
         <v>6.024000000000005</v>
@@ -25645,7 +25667,7 @@
         <v>15.36</v>
       </c>
       <c r="K495" t="n">
-        <v>7.692307692307929</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L495" t="n">
         <v>6.028000000000006</v>
@@ -25696,7 +25718,7 @@
         <v>15.37</v>
       </c>
       <c r="K496" t="n">
-        <v>30.43478260869557</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L496" t="n">
         <v>6.030000000000006</v>
@@ -25747,7 +25769,7 @@
         <v>15.5</v>
       </c>
       <c r="K497" t="n">
-        <v>-16.66666666666691</v>
+        <v>-35.48387096774218</v>
       </c>
       <c r="L497" t="n">
         <v>6.019000000000005</v>
@@ -25798,7 +25820,7 @@
         <v>15.61</v>
       </c>
       <c r="K498" t="n">
-        <v>8.695652173913103</v>
+        <v>-4.999999999999911</v>
       </c>
       <c r="L498" t="n">
         <v>6.019000000000005</v>
@@ -25849,7 +25871,7 @@
         <v>15.62</v>
       </c>
       <c r="K499" t="n">
-        <v>6.382978723404134</v>
+        <v>-7.317073170731765</v>
       </c>
       <c r="L499" t="n">
         <v>6.016000000000005</v>
@@ -25900,7 +25922,7 @@
         <v>15.73</v>
       </c>
       <c r="K500" t="n">
-        <v>-13.79310344827591</v>
+        <v>-15.55555555555564</v>
       </c>
       <c r="L500" t="n">
         <v>6.002000000000005</v>
@@ -25951,7 +25973,7 @@
         <v>15.73</v>
       </c>
       <c r="K501" t="n">
-        <v>-15.78947368421054</v>
+        <v>-15.55555555555564</v>
       </c>
       <c r="L501" t="n">
         <v>5.995000000000005</v>
@@ -26002,7 +26024,7 @@
         <v>15.8</v>
       </c>
       <c r="K502" t="n">
-        <v>-3.124999999999939</v>
+        <v>-15.55555555555545</v>
       </c>
       <c r="L502" t="n">
         <v>5.995000000000005</v>
@@ -26053,7 +26075,7 @@
         <v>15.85</v>
       </c>
       <c r="K503" t="n">
-        <v>4.347826086956561</v>
+        <v>-2.040816326530568</v>
       </c>
       <c r="L503" t="n">
         <v>5.993000000000005</v>
@@ -26104,7 +26126,7 @@
         <v>16.06</v>
       </c>
       <c r="K504" t="n">
-        <v>-19.99999999999996</v>
+        <v>-31.42857142857135</v>
       </c>
       <c r="L504" t="n">
         <v>5.971000000000005</v>
@@ -26155,7 +26177,7 @@
         <v>16.24</v>
       </c>
       <c r="K505" t="n">
-        <v>0</v>
+        <v>-5.747126436781582</v>
       </c>
       <c r="L505" t="n">
         <v>5.967000000000007</v>
@@ -26206,7 +26228,7 @@
         <v>16.24</v>
       </c>
       <c r="K506" t="n">
-        <v>-2.857142857142879</v>
+        <v>10.81081081081079</v>
       </c>
       <c r="L506" t="n">
         <v>5.962000000000008</v>
@@ -26257,7 +26279,7 @@
         <v>16.24</v>
       </c>
       <c r="K507" t="n">
-        <v>-2.857142857142879</v>
+        <v>-4.761904761904781</v>
       </c>
       <c r="L507" t="n">
         <v>5.970000000000008</v>
@@ -26308,7 +26330,7 @@
         <v>16.26</v>
       </c>
       <c r="K508" t="n">
-        <v>-4.672897196261665</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L508" t="n">
         <v>5.965000000000008</v>
@@ -26359,7 +26381,7 @@
         <v>16.33</v>
       </c>
       <c r="K509" t="n">
-        <v>-12.49999999999996</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>5.954000000000008</v>
@@ -26410,7 +26432,7 @@
         <v>16.39</v>
       </c>
       <c r="K510" t="n">
-        <v>-6.779661016949161</v>
+        <v>9.09090909090903</v>
       </c>
       <c r="L510" t="n">
         <v>5.960000000000008</v>
@@ -26512,7 +26534,7 @@
         <v>16.41</v>
       </c>
       <c r="K512" t="n">
-        <v>0.8849557522123686</v>
+        <v>-7.14285714285712</v>
       </c>
       <c r="L512" t="n">
         <v>5.968000000000008</v>
@@ -26563,7 +26585,7 @@
         <v>16.41</v>
       </c>
       <c r="K513" t="n">
-        <v>-5.660377358490517</v>
+        <v>48.57142857142836</v>
       </c>
       <c r="L513" t="n">
         <v>5.964000000000008</v>
@@ -26614,7 +26636,7 @@
         <v>16.41</v>
       </c>
       <c r="K514" t="n">
-        <v>-4.761904761904734</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L514" t="n">
         <v>5.981000000000007</v>
@@ -26665,7 +26687,7 @@
         <v>16.41</v>
       </c>
       <c r="K515" t="n">
-        <v>-4.761904761904734</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L515" t="n">
         <v>5.980000000000007</v>
@@ -26716,7 +26738,7 @@
         <v>16.47</v>
       </c>
       <c r="K516" t="n">
-        <v>0</v>
+        <v>21.73913043478249</v>
       </c>
       <c r="L516" t="n">
         <v>5.985000000000007</v>
@@ -26767,7 +26789,7 @@
         <v>16.47</v>
       </c>
       <c r="K517" t="n">
-        <v>13.40206185567006</v>
+        <v>33.33333333333291</v>
       </c>
       <c r="L517" t="n">
         <v>5.990000000000006</v>
@@ -26818,7 +26840,7 @@
         <v>16.5</v>
       </c>
       <c r="K518" t="n">
-        <v>5.617977528089842</v>
+        <v>99.99999999999896</v>
       </c>
       <c r="L518" t="n">
         <v>6.000000000000005</v>
@@ -26869,7 +26891,7 @@
         <v>16.64</v>
       </c>
       <c r="K519" t="n">
-        <v>19.60784313725486</v>
+        <v>99.99999999999858</v>
       </c>
       <c r="L519" t="n">
         <v>6.031000000000006</v>
@@ -26920,7 +26942,7 @@
         <v>16.7</v>
       </c>
       <c r="K520" t="n">
-        <v>38.14432989690713</v>
+        <v>99.9999999999997</v>
       </c>
       <c r="L520" t="n">
         <v>6.062000000000006</v>
@@ -26971,7 +26993,7 @@
         <v>16.71</v>
       </c>
       <c r="K521" t="n">
-        <v>38.77551020408161</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L521" t="n">
         <v>6.093000000000006</v>
@@ -27022,7 +27044,7 @@
         <v>16.71</v>
       </c>
       <c r="K522" t="n">
-        <v>34.06593406593402</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L522" t="n">
         <v>6.123000000000006</v>
@@ -27073,7 +27095,7 @@
         <v>16.82</v>
       </c>
       <c r="K523" t="n">
-        <v>38.14432989690727</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L523" t="n">
         <v>6.164000000000007</v>
@@ -27124,7 +27146,7 @@
         <v>16.82</v>
       </c>
       <c r="K524" t="n">
-        <v>76.31578947368442</v>
+        <v>100.0000000000009</v>
       </c>
       <c r="L524" t="n">
         <v>6.205000000000006</v>
@@ -27175,7 +27197,7 @@
         <v>16.83</v>
       </c>
       <c r="K525" t="n">
-        <v>66.1016949152542</v>
+        <v>94.44444444444456</v>
       </c>
       <c r="L525" t="n">
         <v>6.245000000000005</v>
@@ -27226,7 +27248,7 @@
         <v>16.83</v>
       </c>
       <c r="K526" t="n">
-        <v>66.1016949152542</v>
+        <v>94.44444444444456</v>
       </c>
       <c r="L526" t="n">
         <v>6.279000000000005</v>
@@ -27277,7 +27299,7 @@
         <v>16.83</v>
       </c>
       <c r="K527" t="n">
-        <v>66.1016949152542</v>
+        <v>93.93939393939431</v>
       </c>
       <c r="L527" t="n">
         <v>6.313000000000005</v>
@@ -27328,7 +27350,7 @@
         <v>16.84</v>
       </c>
       <c r="K528" t="n">
-        <v>68.965517241379</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L528" t="n">
         <v>6.343000000000005</v>
@@ -27379,7 +27401,7 @@
         <v>16.91</v>
       </c>
       <c r="K529" t="n">
-        <v>68.965517241379</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L529" t="n">
         <v>6.352000000000006</v>
@@ -27430,7 +27452,7 @@
         <v>16.94</v>
       </c>
       <c r="K530" t="n">
-        <v>56.36363636363602</v>
+        <v>-4.347826086956354</v>
       </c>
       <c r="L530" t="n">
         <v>6.352000000000006</v>
@@ -27481,7 +27503,7 @@
         <v>17.04000000000001</v>
       </c>
       <c r="K531" t="n">
-        <v>31.24999999999969</v>
+        <v>-33.33333333333289</v>
       </c>
       <c r="L531" t="n">
         <v>6.341000000000005</v>
@@ -27532,7 +27554,7 @@
         <v>17.13000000000001</v>
       </c>
       <c r="K532" t="n">
-        <v>38.88888888888867</v>
+        <v>-41.9354838709672</v>
       </c>
       <c r="L532" t="n">
         <v>6.339000000000005</v>
@@ -27583,7 +27605,7 @@
         <v>17.13000000000001</v>
       </c>
       <c r="K533" t="n">
-        <v>38.88888888888867</v>
+        <v>-41.9354838709672</v>
       </c>
       <c r="L533" t="n">
         <v>6.326000000000006</v>
@@ -27634,7 +27656,7 @@
         <v>17.28</v>
       </c>
       <c r="K534" t="n">
-        <v>14.94252873563216</v>
+        <v>-59.99999999999953</v>
       </c>
       <c r="L534" t="n">
         <v>6.298000000000005</v>
@@ -27685,7 +27707,7 @@
         <v>17.28</v>
       </c>
       <c r="K535" t="n">
-        <v>14.94252873563216</v>
+        <v>-59.99999999999953</v>
       </c>
       <c r="L535" t="n">
         <v>6.271000000000005</v>
@@ -27736,7 +27758,7 @@
         <v>17.33000000000001</v>
       </c>
       <c r="K536" t="n">
-        <v>13.95348837209299</v>
+        <v>-43.99999999999964</v>
       </c>
       <c r="L536" t="n">
         <v>6.249000000000005</v>
@@ -27787,7 +27809,7 @@
         <v>17.34</v>
       </c>
       <c r="K537" t="n">
-        <v>14.94252873563216</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L537" t="n">
         <v>6.228000000000004</v>
@@ -27838,7 +27860,7 @@
         <v>17.41</v>
       </c>
       <c r="K538" t="n">
-        <v>3.296703296703324</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L538" t="n">
         <v>6.201000000000004</v>
@@ -27889,7 +27911,7 @@
         <v>17.46</v>
       </c>
       <c r="K539" t="n">
-        <v>-7.317073170731657</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L539" t="n">
         <v>6.186000000000004</v>
@@ -27940,7 +27962,7 @@
         <v>17.47000000000001</v>
       </c>
       <c r="K540" t="n">
-        <v>-14.28571428571427</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L540" t="n">
         <v>6.175000000000004</v>
@@ -27991,7 +28013,7 @@
         <v>17.48</v>
       </c>
       <c r="K541" t="n">
-        <v>-16.8831168831168</v>
+        <v>-31.42857142857146</v>
       </c>
       <c r="L541" t="n">
         <v>6.173000000000004</v>
@@ -28042,7 +28064,7 @@
         <v>17.49</v>
       </c>
       <c r="K542" t="n">
-        <v>-15.38461538461538</v>
+        <v>-27.777777777778</v>
       </c>
       <c r="L542" t="n">
         <v>6.163000000000004</v>
@@ -28093,7 +28115,7 @@
         <v>17.55</v>
       </c>
       <c r="K543" t="n">
-        <v>-39.72602739726025</v>
+        <v>-3.703703703703679</v>
       </c>
       <c r="L543" t="n">
         <v>6.147000000000004</v>
@@ -28144,7 +28166,7 @@
         <v>17.56</v>
       </c>
       <c r="K544" t="n">
-        <v>-37.83783783783777</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>6.147000000000005</v>
@@ -28195,7 +28217,7 @@
         <v>17.61</v>
       </c>
       <c r="K545" t="n">
-        <v>-28.20512820512813</v>
+        <v>0</v>
       </c>
       <c r="L545" t="n">
         <v>6.152000000000005</v>
@@ -28246,7 +28268,7 @@
         <v>17.61</v>
       </c>
       <c r="K546" t="n">
-        <v>-28.20512820512813</v>
+        <v>-3.70370370370363</v>
       </c>
       <c r="L546" t="n">
         <v>6.152000000000004</v>
@@ -28297,7 +28319,7 @@
         <v>17.67</v>
       </c>
       <c r="K547" t="n">
-        <v>-33.33333333333326</v>
+        <v>0</v>
       </c>
       <c r="L547" t="n">
         <v>6.145000000000004</v>
@@ -28348,7 +28370,7 @@
         <v>17.67</v>
       </c>
       <c r="K548" t="n">
-        <v>-32.53012048192772</v>
+        <v>-23.80952380952403</v>
       </c>
       <c r="L548" t="n">
         <v>6.145000000000005</v>
@@ -28399,7 +28421,7 @@
         <v>17.68</v>
       </c>
       <c r="K549" t="n">
-        <v>-27.27272727272728</v>
+        <v>-33.3333333333339</v>
       </c>
       <c r="L549" t="n">
         <v>6.139000000000005</v>
@@ -28450,7 +28472,7 @@
         <v>17.72</v>
       </c>
       <c r="K550" t="n">
-        <v>-17.94871794871808</v>
+        <v>-8.333333333333579</v>
       </c>
       <c r="L550" t="n">
         <v>6.136000000000005</v>
@@ -28501,7 +28523,7 @@
         <v>17.72</v>
       </c>
       <c r="K551" t="n">
-        <v>-5.882352941176508</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L551" t="n">
         <v>6.134000000000005</v>
@@ -28552,7 +28574,7 @@
         <v>17.78</v>
       </c>
       <c r="K552" t="n">
-        <v>-29.23076923076938</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L552" t="n">
         <v>6.125000000000004</v>
@@ -28603,7 +28625,7 @@
         <v>17.82</v>
       </c>
       <c r="K553" t="n">
-        <v>-21.73913043478272</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>6.126000000000005</v>
@@ -28654,7 +28676,7 @@
         <v>17.86</v>
       </c>
       <c r="K554" t="n">
-        <v>-6.896551724138</v>
+        <v>-36.00000000000045</v>
       </c>
       <c r="L554" t="n">
         <v>6.122000000000005</v>
@@ -28705,7 +28727,7 @@
         <v>17.91</v>
       </c>
       <c r="K555" t="n">
-        <v>1.587301587301565</v>
+        <v>-13.33333333333347</v>
       </c>
       <c r="L555" t="n">
         <v>6.118000000000005</v>
@@ -28756,7 +28778,7 @@
         <v>17.91</v>
       </c>
       <c r="K556" t="n">
-        <v>-6.896551724138</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L556" t="n">
         <v>6.114000000000004</v>
@@ -28807,7 +28829,7 @@
         <v>17.95</v>
       </c>
       <c r="K557" t="n">
-        <v>-14.75409836065582</v>
+        <v>-7.14285714285737</v>
       </c>
       <c r="L557" t="n">
         <v>6.112000000000005</v>
@@ -28858,7 +28880,7 @@
         <v>17.96</v>
       </c>
       <c r="K558" t="n">
-        <v>-5.454545454545528</v>
+        <v>-7.142857142857053</v>
       </c>
       <c r="L558" t="n">
         <v>6.109000000000004</v>
@@ -28909,7 +28931,7 @@
         <v>17.96</v>
       </c>
       <c r="K559" t="n">
-        <v>-16.00000000000013</v>
+        <v>-25</v>
       </c>
       <c r="L559" t="n">
         <v>6.107000000000005</v>
@@ -28960,7 +28982,7 @@
         <v>17.98</v>
       </c>
       <c r="K560" t="n">
-        <v>-13.72549019607863</v>
+        <v>-15.38461538461552</v>
       </c>
       <c r="L560" t="n">
         <v>6.103000000000004</v>
@@ -29011,7 +29033,7 @@
         <v>17.98</v>
       </c>
       <c r="K561" t="n">
-        <v>-12.00000000000018</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L561" t="n">
         <v>6.099000000000004</v>
@@ -29062,7 +29084,7 @@
         <v>17.99</v>
       </c>
       <c r="K562" t="n">
-        <v>-16.00000000000001</v>
+        <v>-17.64705882352938</v>
       </c>
       <c r="L562" t="n">
         <v>6.100000000000004</v>
@@ -29113,7 +29135,7 @@
         <v>18.07</v>
       </c>
       <c r="K563" t="n">
-        <v>-19.23076923076935</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L563" t="n">
         <v>6.089000000000005</v>
@@ -29164,7 +29186,7 @@
         <v>18.15</v>
       </c>
       <c r="K564" t="n">
-        <v>-5.084745762711938</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L564" t="n">
         <v>6.090000000000005</v>
@@ -29215,7 +29237,7 @@
         <v>18.15</v>
       </c>
       <c r="K565" t="n">
-        <v>-14.81481481481495</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L565" t="n">
         <v>6.086000000000005</v>
@@ -29266,7 +29288,7 @@
         <v>18.16</v>
       </c>
       <c r="K566" t="n">
-        <v>-16.36363636363653</v>
+        <v>-4.761904761904721</v>
       </c>
       <c r="L566" t="n">
         <v>6.081000000000005</v>
@@ -29317,7 +29339,7 @@
         <v>18.16</v>
       </c>
       <c r="K567" t="n">
-        <v>-6.122448979591951</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>6.080000000000005</v>
@@ -29368,7 +29390,7 @@
         <v>18.16</v>
       </c>
       <c r="K568" t="n">
-        <v>-6.122448979591951</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>6.080000000000005</v>
@@ -29419,7 +29441,7 @@
         <v>18.16</v>
       </c>
       <c r="K569" t="n">
-        <v>-4.166666666666636</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L569" t="n">
         <v>6.080000000000005</v>
@@ -29470,7 +29492,7 @@
         <v>18.16</v>
       </c>
       <c r="K570" t="n">
-        <v>-13.63636363636373</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L570" t="n">
         <v>6.078000000000005</v>
@@ -29521,7 +29543,7 @@
         <v>18.16</v>
       </c>
       <c r="K571" t="n">
-        <v>-13.63636363636373</v>
+        <v>-5.882352941176532</v>
       </c>
       <c r="L571" t="n">
         <v>6.076000000000006</v>
@@ -29572,7 +29594,7 @@
         <v>18.21</v>
       </c>
       <c r="K572" t="n">
-        <v>-11.62790697674425</v>
+        <v>14.28571428571492</v>
       </c>
       <c r="L572" t="n">
         <v>6.070000000000005</v>
@@ -29623,7 +29645,7 @@
         <v>18.22</v>
       </c>
       <c r="K573" t="n">
-        <v>-25.00000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L573" t="n">
         <v>6.071000000000004</v>
@@ -29674,7 +29696,7 @@
         <v>18.24</v>
       </c>
       <c r="K574" t="n">
-        <v>-21.05263157894744</v>
+        <v>-100</v>
       </c>
       <c r="L574" t="n">
         <v>6.062000000000003</v>
@@ -29725,7 +29747,7 @@
         <v>18.26</v>
       </c>
       <c r="K575" t="n">
-        <v>-42.85714285714297</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L575" t="n">
         <v>6.051000000000004</v>
@@ -29776,7 +29798,7 @@
         <v>18.27</v>
       </c>
       <c r="K576" t="n">
-        <v>-38.88888888888925</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L576" t="n">
         <v>6.042000000000003</v>
@@ -29827,7 +29849,7 @@
         <v>18.27</v>
       </c>
       <c r="K577" t="n">
-        <v>-31.25000000000021</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L577" t="n">
         <v>6.033000000000003</v>
@@ -29878,7 +29900,7 @@
         <v>18.27999999999999</v>
       </c>
       <c r="K578" t="n">
-        <v>-31.25000000000055</v>
+        <v>-83.33333333333482</v>
       </c>
       <c r="L578" t="n">
         <v>6.023000000000003</v>
@@ -29929,7 +29951,7 @@
         <v>18.28999999999999</v>
       </c>
       <c r="K579" t="n">
-        <v>-27.27272727272796</v>
+        <v>-69.23076923077154</v>
       </c>
       <c r="L579" t="n">
         <v>6.014000000000003</v>
@@ -29980,7 +30002,7 @@
         <v>18.37999999999999</v>
       </c>
       <c r="K580" t="n">
-        <v>-50.00000000000089</v>
+        <v>-81.81818181818343</v>
       </c>
       <c r="L580" t="n">
         <v>5.996000000000004</v>
@@ -30031,7 +30053,7 @@
         <v>18.45999999999999</v>
       </c>
       <c r="K581" t="n">
-        <v>-25.00000000000018</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L581" t="n">
         <v>5.986000000000004</v>
@@ -30082,7 +30104,7 @@
         <v>18.47</v>
       </c>
       <c r="K582" t="n">
-        <v>-25.00000000000037</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L582" t="n">
         <v>5.980000000000004</v>
@@ -30133,7 +30155,7 @@
         <v>18.47</v>
       </c>
       <c r="K583" t="n">
-        <v>-10.00000000000013</v>
+        <v>-13.04347826086985</v>
       </c>
       <c r="L583" t="n">
         <v>5.975000000000004</v>
@@ -30184,7 +30206,7 @@
         <v>18.48</v>
       </c>
       <c r="K584" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>5.973000000000004</v>
@@ -30235,7 +30257,7 @@
         <v>18.54</v>
       </c>
       <c r="K585" t="n">
-        <v>-43.58974358974351</v>
+        <v>-25.92592592592573</v>
       </c>
       <c r="L585" t="n">
         <v>5.967000000000004</v>
@@ -30286,7 +30308,7 @@
         <v>18.65</v>
       </c>
       <c r="K586" t="n">
-        <v>-55.1020408163264</v>
+        <v>-47.36842105263142</v>
       </c>
       <c r="L586" t="n">
         <v>5.949000000000004</v>
@@ -30337,7 +30359,7 @@
         <v>18.66</v>
       </c>
       <c r="K587" t="n">
-        <v>-56.00000000000005</v>
+        <v>-47.36842105263142</v>
       </c>
       <c r="L587" t="n">
         <v>5.930000000000005</v>
@@ -30388,7 +30410,7 @@
         <v>18.71</v>
       </c>
       <c r="K588" t="n">
-        <v>-59.99999999999993</v>
+        <v>-57.14285714285647</v>
       </c>
       <c r="L588" t="n">
         <v>5.907000000000004</v>
@@ -30439,7 +30461,7 @@
         <v>18.87</v>
       </c>
       <c r="K589" t="n">
-        <v>-23.94366197183095</v>
+        <v>2.040816326530546</v>
       </c>
       <c r="L589" t="n">
         <v>5.899000000000003</v>
@@ -30490,7 +30512,7 @@
         <v>19.06</v>
       </c>
       <c r="K590" t="n">
-        <v>-39.99999999999994</v>
+        <v>-43.33333333333309</v>
       </c>
       <c r="L590" t="n">
         <v>5.881000000000004</v>
@@ -30541,7 +30563,7 @@
         <v>19.13</v>
       </c>
       <c r="K591" t="n">
-        <v>-29.89690721649477</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L591" t="n">
         <v>5.862000000000004</v>
@@ -30592,7 +30614,7 @@
         <v>19.15</v>
       </c>
       <c r="K592" t="n">
-        <v>-23.40425531914897</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L592" t="n">
         <v>5.846000000000004</v>
@@ -30643,7 +30665,7 @@
         <v>19.15</v>
       </c>
       <c r="K593" t="n">
-        <v>-22.58064516129032</v>
+        <v>-25.37313432835827</v>
       </c>
       <c r="L593" t="n">
         <v>5.830000000000004</v>
@@ -30694,7 +30716,7 @@
         <v>19.24</v>
       </c>
       <c r="K594" t="n">
-        <v>-9.999999999999964</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L594" t="n">
         <v>5.822000000000005</v>
@@ -30745,7 +30767,7 @@
         <v>19.25</v>
       </c>
       <c r="K595" t="n">
-        <v>-7.070707070707086</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L595" t="n">
         <v>5.821000000000003</v>
@@ -30796,7 +30818,7 @@
         <v>19.25</v>
       </c>
       <c r="K596" t="n">
-        <v>-8.163265306122423</v>
+        <v>18.64406779661012</v>
       </c>
       <c r="L596" t="n">
         <v>5.831000000000003</v>
@@ -30847,7 +30869,7 @@
         <v>19.31</v>
       </c>
       <c r="K597" t="n">
-        <v>-1.923076923076962</v>
+        <v>36.66666666666654</v>
       </c>
       <c r="L597" t="n">
         <v>5.848000000000003</v>
@@ -30898,7 +30920,7 @@
         <v>19.31</v>
       </c>
       <c r="K598" t="n">
-        <v>-0.9708737864078282</v>
+        <v>13.63636363636351</v>
       </c>
       <c r="L598" t="n">
         <v>5.870000000000003</v>
@@ -30949,7 +30971,7 @@
         <v>19.31</v>
       </c>
       <c r="K599" t="n">
-        <v>-1.960784313725523</v>
+        <v>100</v>
       </c>
       <c r="L599" t="n">
         <v>5.876000000000003</v>
@@ -31000,7 +31022,7 @@
         <v>19.31</v>
       </c>
       <c r="K600" t="n">
-        <v>7.526881720429987</v>
+        <v>100</v>
       </c>
       <c r="L600" t="n">
         <v>5.901000000000003</v>
@@ -31051,7 +31073,7 @@
         <v>19.32</v>
       </c>
       <c r="K601" t="n">
-        <v>0</v>
+        <v>99.99999999999947</v>
       </c>
       <c r="L601" t="n">
         <v>5.920000000000003</v>
@@ -31102,7 +31124,7 @@
         <v>19.33</v>
       </c>
       <c r="K602" t="n">
-        <v>2.325581395348883</v>
+        <v>100.0000000000005</v>
       </c>
       <c r="L602" t="n">
         <v>5.938000000000004</v>
@@ -31153,7 +31175,7 @@
         <v>19.38</v>
       </c>
       <c r="K603" t="n">
-        <v>7.692307692307693</v>
+        <v>99.99999999999936</v>
       </c>
       <c r="L603" t="n">
         <v>5.961000000000004</v>
@@ -31204,7 +31226,7 @@
         <v>19.46</v>
       </c>
       <c r="K604" t="n">
-        <v>14.2857142857142</v>
+        <v>99.99999999999957</v>
       </c>
       <c r="L604" t="n">
         <v>5.983000000000005</v>
@@ -31255,7 +31277,7 @@
         <v>19.47</v>
       </c>
       <c r="K605" t="n">
-        <v>20.43010752688177</v>
+        <v>90.90909090909146</v>
       </c>
       <c r="L605" t="n">
         <v>6.003000000000005</v>
@@ -31306,7 +31328,7 @@
         <v>19.47</v>
       </c>
       <c r="K606" t="n">
-        <v>36.58536585365861</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L606" t="n">
         <v>6.023000000000006</v>
@@ -31357,7 +31379,7 @@
         <v>19.47</v>
       </c>
       <c r="K607" t="n">
-        <v>38.27160493827156</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L607" t="n">
         <v>6.037000000000006</v>
@@ -31408,7 +31430,7 @@
         <v>19.47</v>
       </c>
       <c r="K608" t="n">
-        <v>47.36842105263153</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L608" t="n">
         <v>6.051000000000006</v>
@@ -31459,7 +31481,7 @@
         <v>19.47</v>
       </c>
       <c r="K609" t="n">
-        <v>33.33333333333328</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L609" t="n">
         <v>6.065000000000007</v>
@@ -31510,7 +31532,7 @@
         <v>19.47</v>
       </c>
       <c r="K610" t="n">
-        <v>95.1219512195123</v>
+        <v>86.66666666666741</v>
       </c>
       <c r="L610" t="n">
         <v>6.079000000000006</v>
@@ -31561,7 +31583,7 @@
         <v>19.48</v>
       </c>
       <c r="K611" t="n">
-        <v>88.5714285714281</v>
+        <v>73.33333333333191</v>
       </c>
       <c r="L611" t="n">
         <v>6.091000000000006</v>
@@ -31612,7 +31634,7 @@
         <v>19.75</v>
       </c>
       <c r="K612" t="n">
-        <v>3.333333333333403</v>
+        <v>-56.7567567567566</v>
       </c>
       <c r="L612" t="n">
         <v>6.075000000000005</v>

--- a/BackTest/2019-10-16 BackTest FAB.xlsx
+++ b/BackTest/2019-10-16 BackTest FAB.xlsx
@@ -451,20 +451,14 @@
         <v>5.778499999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>5.780333333333331</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>5.783166666666665</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>5.786166666666665</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>5.789166666666665</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>5.792166666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>5.795333333333332</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>5.798499999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>5.800333333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>5.96</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>5.801499999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>5.802999999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>5.804166666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>5.805333333333332</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>5.806499999999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>5.808666666666665</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>5.811333333333331</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>5.813333333333331</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>5.814999999999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>5.817166666666664</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>5.821166666666665</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>5.823333333333331</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>5.828333333333331</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>5.833166666666665</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>5.837833333333331</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>5.842333333333331</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>5.845499999999998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>5.847999999999998</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>5.852499999999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>5.859166666666665</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5.96</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>5.865833333333331</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>5.870499999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>5.875166666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>5.879833333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>5.885999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>5.891333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>5.896666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>5.901999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>5.906333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>5.911166666666665</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>5.915999999999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>5.918166666666664</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>5.918666666666664</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>5.918999999999997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>5.91933333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>5.919166666666664</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>5.917999999999997</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.77</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>5.917166666666663</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>5.916999999999996</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>5.916833333333329</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>5.916666666666661</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>5.916499999999994</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2542,20 +2236,14 @@
         <v>5.916166666666659</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2583,20 +2271,14 @@
         <v>5.915666666666659</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2624,20 +2306,14 @@
         <v>5.915499999999993</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2665,20 +2341,14 @@
         <v>5.915166666666659</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2706,20 +2376,14 @@
         <v>5.913999999999992</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2747,20 +2411,14 @@
         <v>5.912666666666658</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2788,20 +2446,14 @@
         <v>5.912499999999992</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2829,20 +2481,14 @@
         <v>5.911666666666658</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2870,20 +2516,14 @@
         <v>5.910833333333325</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2911,20 +2551,14 @@
         <v>5.909833333333324</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2952,20 +2586,14 @@
         <v>5.910166666666657</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2993,20 +2621,14 @@
         <v>5.909499999999991</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3034,20 +2656,14 @@
         <v>5.908666666666657</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3075,20 +2691,14 @@
         <v>5.907833333333324</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3116,20 +2726,14 @@
         <v>5.907333333333324</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3157,20 +2761,14 @@
         <v>5.906666666666657</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3198,20 +2796,14 @@
         <v>5.905999999999992</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3239,20 +2831,14 @@
         <v>5.906499999999992</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3280,20 +2866,14 @@
         <v>5.907999999999992</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3321,20 +2901,14 @@
         <v>5.909333333333326</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3362,20 +2936,14 @@
         <v>5.909999999999993</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3403,20 +2971,14 @@
         <v>5.910999999999992</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3444,20 +3006,14 @@
         <v>5.912499999999993</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3485,20 +3041,14 @@
         <v>5.912833333333327</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3526,20 +3076,14 @@
         <v>5.913333333333328</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3567,20 +3111,14 @@
         <v>5.914499999999994</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5.98</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3608,20 +3146,14 @@
         <v>5.916333333333327</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>6</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3649,20 +3181,14 @@
         <v>5.918666666666661</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>6.03</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3814,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3966,16 +3464,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4003,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4143,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4528,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4563,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -6068,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6103,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6138,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -15130,13 +14626,17 @@
         <v>6.158666666666661</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K407" t="n">
+        <v>5.82</v>
+      </c>
       <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
@@ -15171,12 +14671,16 @@
         <v>0</v>
       </c>
       <c r="J408" t="n">
-        <v>5.97</v>
+        <v>5.83</v>
       </c>
       <c r="K408" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="L408" t="inlineStr"/>
+        <v>5.82</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15213,7 +14717,7 @@
         <v>5.97</v>
       </c>
       <c r="K409" t="n">
-        <v>5.97</v>
+        <v>5.82</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -15247,20 +14751,18 @@
         <v>6.138999999999996</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K410" t="n">
         <v>5.97</v>
       </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15288,14 +14790,22 @@
         <v>6.130999999999997</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K411" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15323,18 +14833,20 @@
         <v>6.122999999999997</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="L412" t="inlineStr"/>
+        <v>5.97</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15362,20 +14874,18 @@
         <v>6.116666666666664</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M413" t="n">
@@ -15405,20 +14915,18 @@
         <v>6.108999999999997</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M414" t="n">
@@ -15448,16 +14956,14 @@
         <v>6.101833333333331</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>5.85</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -15491,16 +14997,14 @@
         <v>6.097166666666664</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>5.91</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -15534,16 +15038,14 @@
         <v>6.090999999999997</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -15577,16 +15079,14 @@
         <v>6.084166666666664</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>5.93</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -15620,16 +15120,14 @@
         <v>6.077999999999998</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -15663,16 +15161,14 @@
         <v>6.070999999999997</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -15706,16 +15202,14 @@
         <v>6.063999999999997</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -15749,16 +15243,14 @@
         <v>6.057999999999996</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>5.95</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -15792,16 +15284,14 @@
         <v>6.052499999999997</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>5.96</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -15835,16 +15325,14 @@
         <v>6.046999999999997</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -15878,16 +15366,14 @@
         <v>6.042166666666664</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -15928,7 +15414,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -15969,7 +15455,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -16010,7 +15496,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -16051,7 +15537,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -16092,7 +15578,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -16133,7 +15619,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -16174,7 +15660,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -16215,7 +15701,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -16256,7 +15742,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -16297,7 +15783,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -16338,7 +15824,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -16379,7 +15865,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -16420,7 +15906,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -16461,7 +15947,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -16502,7 +15988,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -16543,7 +16029,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -16584,7 +16070,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -16625,7 +16111,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -16666,7 +16152,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -16707,7 +16193,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -16748,7 +16234,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -16789,7 +16275,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -16830,7 +16316,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -16871,7 +16357,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -16912,7 +16398,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -16953,7 +16439,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -16994,7 +16480,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -17035,7 +16521,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -17076,7 +16562,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -17117,7 +16603,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -17158,7 +16644,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -17199,7 +16685,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -17240,7 +16726,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -17281,7 +16767,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -17322,7 +16808,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -17363,7 +16849,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -17404,7 +16890,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -17445,7 +16931,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -17486,7 +16972,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -17527,7 +17013,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -17568,7 +17054,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -17609,7 +17095,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -17650,7 +17136,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -17691,7 +17177,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -17732,7 +17218,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -17773,7 +17259,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -17814,7 +17300,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -17855,7 +17341,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -17896,7 +17382,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -17937,7 +17423,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -17978,7 +17464,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -18019,7 +17505,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -18060,7 +17546,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -18101,7 +17587,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -18142,7 +17628,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -18183,7 +17669,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -18224,7 +17710,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -18265,7 +17751,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -18306,7 +17792,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -18347,7 +17833,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -18388,7 +17874,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -18429,7 +17915,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -18470,7 +17956,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -18511,7 +17997,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -18552,7 +18038,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -18593,7 +18079,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -18634,7 +18120,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -18675,7 +18161,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -18716,7 +18202,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -18757,7 +18243,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -18798,7 +18284,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -18839,7 +18325,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -18880,7 +18366,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -18921,7 +18407,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -18962,7 +18448,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -19003,7 +18489,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -19044,7 +18530,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -19085,7 +18571,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -19126,7 +18612,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -19167,7 +18653,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -19208,7 +18694,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -19249,7 +18735,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -19290,7 +18776,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -19331,7 +18817,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -19372,7 +18858,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -19413,7 +18899,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -19454,7 +18940,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -19495,7 +18981,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -19536,7 +19022,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -19577,7 +19063,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -19618,7 +19104,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -19659,7 +19145,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -19700,7 +19186,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -19741,7 +19227,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -19782,7 +19268,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -19823,7 +19309,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -19864,7 +19350,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -19905,7 +19391,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -19946,7 +19432,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -19987,7 +19473,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -20028,7 +19514,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -20069,7 +19555,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -20110,7 +19596,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -20151,7 +19637,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -20192,7 +19678,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -20233,7 +19719,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -20274,7 +19760,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -20315,7 +19801,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -20356,7 +19842,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -20397,7 +19883,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -20438,7 +19924,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -20479,7 +19965,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -20520,7 +20006,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -20561,7 +20047,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -20602,7 +20088,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -20643,7 +20129,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -20684,7 +20170,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -20725,7 +20211,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -20766,7 +20252,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -20807,7 +20293,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -20848,7 +20334,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -20889,7 +20375,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -20930,7 +20416,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -20971,7 +20457,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -21012,7 +20498,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -21053,7 +20539,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -21094,7 +20580,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -21135,7 +20621,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -21176,7 +20662,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -21217,7 +20703,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -21258,7 +20744,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -21299,7 +20785,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -21340,7 +20826,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -21381,7 +20867,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -21422,7 +20908,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -21463,7 +20949,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -21504,7 +20990,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -21545,7 +21031,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -21586,7 +21072,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -21627,7 +21113,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -21668,7 +21154,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -21709,7 +21195,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -21750,7 +21236,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -21791,7 +21277,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -21832,7 +21318,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -21873,7 +21359,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -21914,7 +21400,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -21955,7 +21441,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -21996,7 +21482,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -22037,7 +21523,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -22078,7 +21564,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -22119,7 +21605,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -22160,7 +21646,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -22201,7 +21687,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -22242,7 +21728,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -22283,7 +21769,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -22324,7 +21810,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -22365,7 +21851,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -22406,7 +21892,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -22447,7 +21933,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -22488,7 +21974,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -22529,7 +22015,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -22563,16 +22049,14 @@
         <v>6.077499999999999</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -22606,16 +22090,14 @@
         <v>6.070833333333332</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -22649,16 +22131,14 @@
         <v>6.0615</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>5.89</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -22692,16 +22172,14 @@
         <v>6.055000000000001</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="n">
-        <v>5.85</v>
+        <v>5.97</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>

--- a/BackTest/2019-10-16 BackTest FAB.xlsx
+++ b/BackTest/2019-10-16 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-534785.1385</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,946 +517,790 @@
         <v>-534785.1385</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>5.77</v>
       </c>
-      <c r="J4" t="n">
+      <c r="C5" t="n">
         <v>5.77</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="D5" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F5" t="n">
+        <v>86.6551</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-534785.1385</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>155.9792</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-534785.1385</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77.98950000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-534785.1385</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16627.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-534785.1385</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F9" t="n">
+        <v>170297.102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-364488.0365</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12358.1757</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-352129.8608</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>176983.0196</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-529112.8803999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-529100.8803999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13833.7521</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-529100.8803999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12196.3185</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-529100.8803999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17182.1305</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-511918.7498999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F16" t="n">
+        <v>630000.098</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1141918.8479</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1141907.8479</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1141895.8479</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F19" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1321895.8479</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>992721.7033000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2314617.5512</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-2304617.5512</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="F22" t="n">
+        <v>186.9397</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2304804.4909</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20000.0001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2284804.4908</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F24" t="n">
+        <v>26742.5114</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2258061.9794</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F25" t="n">
+        <v>37000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2221061.9794</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2221028.9794</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F5" t="n">
-        <v>86.6551</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-534785.1385</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F6" t="n">
-        <v>155.9792</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-534785.1385</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F7" t="n">
-        <v>77.98950000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-534785.1385</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16627.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-534785.1385</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="F9" t="n">
-        <v>170297.102</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-364488.0365</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="F10" t="n">
-        <v>12358.1757</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-352129.8608</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F11" t="n">
-        <v>176983.0196</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-529112.8803999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-529100.8803999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13833.7521</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-529100.8803999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12196.3185</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-529100.8803999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F15" t="n">
-        <v>17182.1305</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-511918.7498999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F16" t="n">
-        <v>630000.098</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1141918.8479</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="F27" t="n">
+        <v>50318.6685</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2271347.6479</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-1141907.8479</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-1141895.8479</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F19" t="n">
-        <v>180000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-1321895.8479</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>992721.7033000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-2314617.5512</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-2304617.5512</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F22" t="n">
-        <v>186.9397</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-2304804.4909</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F23" t="n">
-        <v>20000.0001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-2284804.4908</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F24" t="n">
-        <v>26742.5114</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-2258061.9794</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F25" t="n">
-        <v>37000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-2221061.9794</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="F26" t="n">
-        <v>33</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-2221028.9794</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F27" t="n">
-        <v>50318.6685</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-2271347.6479</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1489,13 +1329,13 @@
         <v>-1986593.0365</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>5.64</v>
       </c>
       <c r="J28" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1530,13 +1370,13 @@
         <v>-2138304.8311</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5.69</v>
       </c>
       <c r="J29" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1571,13 +1411,13 @@
         <v>-2178276.8311</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>5.57</v>
       </c>
       <c r="J30" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1612,13 +1452,13 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>5.56</v>
       </c>
       <c r="J31" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1653,13 +1493,13 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>5.69</v>
       </c>
       <c r="J32" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1694,13 +1534,13 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5.69</v>
       </c>
       <c r="J33" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1735,13 +1575,13 @@
         <v>-2183153.1223</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>5.69</v>
       </c>
       <c r="J34" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1776,13 +1616,13 @@
         <v>-2338940.1679</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1817,13 +1657,13 @@
         <v>-2338940.1679</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.58</v>
       </c>
       <c r="J36" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1858,13 +1698,13 @@
         <v>-2338940.1679</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5.58</v>
       </c>
       <c r="J37" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1899,13 +1739,13 @@
         <v>-2328940.1679</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>5.58</v>
       </c>
       <c r="J38" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1940,13 +1780,13 @@
         <v>-2392271.1679</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>5.64</v>
       </c>
       <c r="J39" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1981,13 +1821,13 @@
         <v>-2392271.1679</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>5.6</v>
       </c>
       <c r="J40" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2022,13 +1862,13 @@
         <v>-2042040.328202599</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>5.6</v>
       </c>
       <c r="J41" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2063,13 +1903,13 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>5.77</v>
       </c>
       <c r="J42" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2104,13 +1944,13 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>5.87</v>
       </c>
       <c r="J43" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2145,13 +1985,11 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2190,7 +2028,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2229,7 +2067,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2268,7 +2106,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2307,7 +2145,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2346,7 +2184,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2385,7 +2223,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2420,13 +2258,11 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2461,13 +2297,11 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2502,13 +2336,11 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2543,13 +2375,11 @@
         <v>490500.4028224875</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2584,13 +2414,11 @@
         <v>507421.9431224875</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2629,7 +2457,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2668,7 +2496,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2707,7 +2535,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2746,7 +2574,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2785,7 +2613,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2824,7 +2652,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2863,7 +2691,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2902,7 +2730,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2941,7 +2769,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2980,7 +2808,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3019,7 +2847,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3058,7 +2886,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3097,7 +2925,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3136,7 +2964,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3175,7 +3003,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3214,7 +3042,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3253,7 +3081,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3292,7 +3120,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3331,7 +3159,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3370,7 +3198,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3409,7 +3237,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3448,7 +3276,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3487,7 +3315,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3526,7 +3354,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3565,7 +3393,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3604,7 +3432,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3643,7 +3471,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3682,7 +3510,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3721,7 +3549,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3760,7 +3588,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3799,7 +3627,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3838,7 +3666,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3873,11 +3701,13 @@
         <v>299277.1261224876</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.79</v>
+      </c>
       <c r="J88" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3916,7 +3746,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3955,7 +3785,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3994,7 +3824,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4033,7 +3863,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4072,7 +3902,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4111,7 +3941,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4150,7 +3980,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4189,7 +4019,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4228,7 +4058,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4267,7 +4097,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4306,7 +4136,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4345,7 +4175,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4384,7 +4214,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4423,7 +4253,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4462,7 +4292,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4501,7 +4331,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4540,7 +4370,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4579,7 +4409,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4618,7 +4448,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4657,7 +4487,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4696,7 +4526,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4735,7 +4565,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4774,7 +4604,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4813,7 +4643,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4852,7 +4682,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4891,7 +4721,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4930,7 +4760,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4969,7 +4799,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5008,7 +4838,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5047,7 +4877,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5086,7 +4916,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5125,7 +4955,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5164,7 +4994,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5203,7 +5033,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5242,7 +5072,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5281,7 +5111,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5316,13 +5146,11 @@
         <v>-384038.2108832076</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5357,13 +5185,11 @@
         <v>-382894.2108832076</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5398,13 +5224,11 @@
         <v>-382894.2108832076</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5439,13 +5263,11 @@
         <v>-382894.2108832076</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5484,7 +5306,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5523,7 +5345,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5562,7 +5384,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5601,7 +5423,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5640,7 +5462,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5679,7 +5501,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5718,7 +5540,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5757,7 +5579,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5796,7 +5618,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5835,7 +5657,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5874,7 +5696,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5913,7 +5735,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5952,7 +5774,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5991,7 +5813,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6030,7 +5852,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6069,7 +5891,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6108,7 +5930,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6147,7 +5969,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6186,7 +6008,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6225,7 +6047,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6264,7 +6086,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6303,7 +6125,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6342,7 +6164,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6381,7 +6203,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6420,7 +6242,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6459,7 +6281,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6498,7 +6320,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6537,7 +6359,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6576,7 +6398,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6615,7 +6437,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6654,7 +6476,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6693,7 +6515,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6732,7 +6554,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6771,7 +6593,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6810,7 +6632,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6849,7 +6671,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6888,7 +6710,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6927,7 +6749,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6966,7 +6788,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7005,7 +6827,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7044,7 +6866,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7083,7 +6905,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7122,7 +6944,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7161,7 +6983,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7200,7 +7022,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7239,7 +7061,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7278,7 +7100,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7317,7 +7139,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7356,7 +7178,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7395,7 +7217,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7434,7 +7256,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7473,7 +7295,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7512,7 +7334,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7551,7 +7373,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7590,7 +7412,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7629,7 +7451,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7668,7 +7490,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7707,7 +7529,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7746,7 +7568,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7785,7 +7607,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7824,7 +7646,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7863,7 +7685,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7902,7 +7724,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7941,7 +7763,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7980,7 +7802,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8019,7 +7841,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8058,7 +7880,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8097,7 +7919,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8136,7 +7958,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8175,7 +7997,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8214,7 +8036,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8253,7 +8075,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8292,7 +8114,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8331,7 +8153,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8370,7 +8192,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8409,7 +8231,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8448,7 +8270,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8487,7 +8309,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8522,188 +8344,218 @@
         <v>8474742.887970261</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F208" t="n">
+        <v>121445.4495</v>
+      </c>
+      <c r="G208" t="n">
+        <v>8353297.438470261</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F209" t="n">
+        <v>564473.2127</v>
+      </c>
+      <c r="G209" t="n">
+        <v>7788824.225770261</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F210" t="n">
+        <v>129251.145</v>
+      </c>
+      <c r="G210" t="n">
+        <v>7918075.370770261</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F211" t="n">
+        <v>141132.9726</v>
+      </c>
+      <c r="G211" t="n">
+        <v>8059208.343370261</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F212" t="n">
+        <v>385177.6821</v>
+      </c>
+      <c r="G212" t="n">
+        <v>7674030.661270261</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1.127530120481928</v>
-      </c>
-      <c r="M207" t="n">
-        <v>1.008665511265165</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="D208" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E208" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="F208" t="n">
-        <v>121445.4495</v>
-      </c>
-      <c r="G208" t="n">
-        <v>8353297.438470261</v>
-      </c>
-      <c r="H208" t="n">
-        <v>3</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="D209" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E209" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="F209" t="n">
-        <v>564473.2127</v>
-      </c>
-      <c r="G209" t="n">
-        <v>7788824.225770261</v>
-      </c>
-      <c r="H209" t="n">
-        <v>3</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="D210" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="E210" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="F210" t="n">
-        <v>129251.145</v>
-      </c>
-      <c r="G210" t="n">
-        <v>7918075.370770261</v>
-      </c>
-      <c r="H210" t="n">
-        <v>3</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="D211" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E211" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F211" t="n">
-        <v>141132.9726</v>
-      </c>
-      <c r="G211" t="n">
-        <v>8059208.343370261</v>
-      </c>
-      <c r="H211" t="n">
-        <v>3</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="D212" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E212" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F212" t="n">
-        <v>385177.6821</v>
-      </c>
-      <c r="G212" t="n">
-        <v>7674030.661270261</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>1.155777385159011</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.058181818181818</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8893,7 +8745,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8926,7 +8778,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8959,7 +8811,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8992,7 +8844,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9025,7 +8877,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9058,7 +8910,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9091,7 +8943,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9124,7 +8976,7 @@
         <v>7518932.994370261</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9157,7 +9009,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9190,7 +9042,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9223,7 +9075,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9256,7 +9108,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9289,7 +9141,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9322,7 +9174,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9355,7 +9207,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9388,7 +9240,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9421,7 +9273,7 @@
         <v>7602486.501270261</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9454,7 +9306,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9784,7 +9636,7 @@
         <v>8114435.383370261</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9817,7 +9669,7 @@
         <v>7614304.966770261</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9850,7 +9702,7 @@
         <v>7614304.966770261</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9883,7 +9735,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9916,7 +9768,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9949,7 +9801,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9982,7 +9834,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10015,7 +9867,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10048,7 +9900,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10081,7 +9933,7 @@
         <v>7280739.014129921</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10114,7 +9966,7 @@
         <v>7250282.431329921</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10147,7 +9999,7 @@
         <v>7243616.431329921</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10180,7 +10032,7 @@
         <v>7243565.481329921</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10213,7 +10065,7 @@
         <v>7248116.434729921</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10246,7 +10098,7 @@
         <v>7039373.057929921</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10279,7 +10131,7 @@
         <v>7039479.007929921</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10312,7 +10164,7 @@
         <v>6877659.025429921</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10345,7 +10197,7 @@
         <v>6877659.025429921</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10378,7 +10230,7 @@
         <v>6877659.025429921</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10411,7 +10263,7 @@
         <v>7194737.756429921</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10444,7 +10296,7 @@
         <v>7072996.110229921</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10477,7 +10329,7 @@
         <v>7072912.16022992</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10510,7 +10362,7 @@
         <v>7058228.78152992</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10543,7 +10395,7 @@
         <v>7069494.941929921</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10576,7 +10428,7 @@
         <v>7069421.99192992</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10609,7 +10461,7 @@
         <v>7069349.04192992</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10642,7 +10494,7 @@
         <v>7069349.04192992</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10708,7 +10560,7 @@
         <v>7525509.42032992</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10741,7 +10593,7 @@
         <v>7493196.11562992</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10774,7 +10626,7 @@
         <v>7493196.11562992</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10807,7 +10659,7 @@
         <v>7329290.42712992</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10840,7 +10692,7 @@
         <v>7329301.42712992</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -14965,7 +14817,7 @@
         <v>14468617.44093925</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14998,7 +14850,7 @@
         <v>14347897.46203925</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15031,7 +14883,7 @@
         <v>14316940.36453925</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15064,7 +14916,7 @@
         <v>14316836.51433925</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15097,7 +14949,7 @@
         <v>14316836.51433925</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15130,7 +14982,7 @@
         <v>14316836.51433925</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15163,7 +15015,7 @@
         <v>14316836.51433925</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15559,7 +15411,7 @@
         <v>14708679.53713593</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15592,7 +15444,7 @@
         <v>14708679.53713593</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15625,7 +15477,7 @@
         <v>14642345.43473593</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15658,7 +15510,7 @@
         <v>14642345.43473593</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15691,7 +15543,7 @@
         <v>14641516.98313593</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15724,7 +15576,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15757,7 +15609,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15790,7 +15642,7 @@
         <v>14669124.47643593</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15823,7 +15675,7 @@
         <v>14669135.47643593</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15856,7 +15708,7 @@
         <v>14663869.44983593</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16351,7 +16203,7 @@
         <v>14685963.04783594</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16384,7 +16236,7 @@
         <v>14607120.51983594</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16615,7 +16467,7 @@
         <v>11552954.35713594</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16681,7 +16533,7 @@
         <v>11528979.65186147</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -20872,7 +20724,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20905,7 +20757,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20971,7 +20823,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21004,7 +20856,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21037,7 +20889,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21070,7 +20922,7 @@
         <v>13490608.6682878</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21103,7 +20955,7 @@
         <v>13479135.9747878</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21136,7 +20988,7 @@
         <v>13453559.4309878</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21169,7 +21021,7 @@
         <v>13452646.00058779</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21202,7 +21054,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21565,7 +21417,7 @@
         <v>13407439.41958779</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21598,7 +21450,7 @@
         <v>13442864.88036478</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21631,7 +21483,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21664,7 +21516,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21730,7 +21582,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21763,7 +21615,7 @@
         <v>13215459.27926478</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21796,7 +21648,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21862,7 +21714,7 @@
         <v>13077846.11596478</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21895,7 +21747,7 @@
         <v>13177526.41516478</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21928,7 +21780,7 @@
         <v>13123021.54846478</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21961,7 +21813,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21994,7 +21846,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22027,7 +21879,7 @@
         <v>13112292.39876478</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22060,7 +21912,7 @@
         <v>13020594.96486478</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22126,7 +21978,7 @@
         <v>13203201.95166478</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22324,7 +22176,7 @@
         <v>12656203.64226478</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23490,6 +23342,6 @@
       <c r="M660" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest FAB.xlsx
+++ b/BackTest/2019-10-16 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-534785.1385</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.77</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-534785.1385</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -616,10 +634,14 @@
         <v>-534785.1385</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.77</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -652,8 +674,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +713,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1211,14 @@
         <v>-2258061.9794</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.65</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1216,9 +1254,13 @@
         <v>5.66</v>
       </c>
       <c r="J25" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>5.65</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>5.67</v>
       </c>
       <c r="J26" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1288,19 +1330,11 @@
         <v>-2271347.6479</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1329,19 +1363,11 @@
         <v>-1986593.0365</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1370,19 +1396,11 @@
         <v>-2138304.8311</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1417,13 +1435,9 @@
         <v>5.57</v>
       </c>
       <c r="J30" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.57</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1458,11 +1472,11 @@
         <v>5.56</v>
       </c>
       <c r="J31" t="n">
-        <v>5.66</v>
+        <v>5.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1499,11 +1513,11 @@
         <v>5.69</v>
       </c>
       <c r="J32" t="n">
-        <v>5.66</v>
+        <v>5.57</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1534,19 +1548,11 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1575,19 +1581,11 @@
         <v>-2183153.1223</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1616,19 +1614,11 @@
         <v>-2338940.1679</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1663,13 +1653,9 @@
         <v>5.58</v>
       </c>
       <c r="J36" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.58</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1704,11 +1690,11 @@
         <v>5.58</v>
       </c>
       <c r="J37" t="n">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1745,11 +1731,11 @@
         <v>5.58</v>
       </c>
       <c r="J38" t="n">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1786,13 +1772,9 @@
         <v>5.64</v>
       </c>
       <c r="J39" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.64</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1809,11 @@
         <v>5.6</v>
       </c>
       <c r="J40" t="n">
-        <v>5.66</v>
+        <v>5.64</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1868,11 +1850,11 @@
         <v>5.6</v>
       </c>
       <c r="J41" t="n">
-        <v>5.66</v>
+        <v>5.64</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1903,19 +1885,11 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1944,19 +1918,11 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1988,14 +1954,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2027,14 +1987,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2066,14 +2020,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2105,14 +2053,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2141,17 +2083,11 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2183,14 +2119,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2222,14 +2152,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2261,14 +2185,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2300,14 +2218,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2339,14 +2251,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2378,14 +2284,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2417,14 +2317,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2456,14 +2350,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2495,14 +2383,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2534,14 +2416,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2573,14 +2449,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2612,14 +2482,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2515,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2548,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2729,14 +2581,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2768,14 +2614,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2807,14 +2647,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2846,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2885,14 +2713,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2924,14 +2746,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2960,17 +2776,11 @@
         <v>495668.0106224876</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2999,17 +2809,11 @@
         <v>411727.0632224876</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2845,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +2878,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +2911,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +2944,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3197,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3233,17 +3007,11 @@
         <v>419757.3295224876</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3272,17 +3040,11 @@
         <v>324077.9113224876</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3311,17 +3073,11 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3350,17 +3106,11 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3389,17 +3139,11 @@
         <v>253909.2479224876</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3428,17 +3172,11 @@
         <v>253919.2479224876</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3467,17 +3205,11 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3506,17 +3238,11 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3545,17 +3271,11 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3584,17 +3304,11 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3623,17 +3337,11 @@
         <v>273589.5791224876</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3662,17 +3370,11 @@
         <v>265856.7921224876</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3701,19 +3403,11 @@
         <v>299277.1261224876</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3742,17 +3436,11 @@
         <v>375816.1066224876</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3781,17 +3469,11 @@
         <v>220500.4007167924</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3820,17 +3502,11 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3859,17 +3535,11 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3898,17 +3568,11 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3940,14 +3604,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3637,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3670,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4057,14 +3703,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4096,14 +3736,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4135,14 +3769,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4174,14 +3802,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4213,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4252,14 +3868,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4291,14 +3901,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +3934,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4369,14 +3967,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4408,14 +4000,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4447,14 +4033,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4486,14 +4066,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4099,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4564,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4603,14 +4165,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4198,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4231,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4264,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4297,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4798,14 +4330,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4837,14 +4363,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4876,14 +4396,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4915,14 +4429,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4954,14 +4462,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4993,14 +4495,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5032,14 +4528,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +4561,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5110,14 +4594,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5149,14 +4627,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +4660,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +4693,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5266,14 +4726,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +4759,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5344,14 +4792,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +4825,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5422,14 +4858,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5461,14 +4891,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5500,14 +4924,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5539,14 +4957,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +4990,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5617,14 +5023,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5656,14 +5056,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5695,14 +5089,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5734,14 +5122,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5773,14 +5155,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5809,17 +5185,11 @@
         <v>2664664.194113879</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5848,17 +5218,11 @@
         <v>3534102.275813879</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5887,17 +5251,11 @@
         <v>3508843.59071388</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5926,17 +5284,11 @@
         <v>3790270.34611388</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5965,17 +5317,11 @@
         <v>3496958.67231388</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6004,17 +5350,11 @@
         <v>3753130.80921388</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6043,17 +5383,11 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6082,17 +5416,11 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6121,17 +5449,11 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6160,17 +5482,11 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6202,14 +5518,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6241,14 +5551,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6280,14 +5584,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6319,14 +5617,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6358,14 +5650,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6397,14 +5683,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +5716,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +5749,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6514,14 +5782,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6553,14 +5815,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6592,14 +5848,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6631,14 +5881,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +5914,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6709,14 +5947,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6748,14 +5980,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +6013,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6823,17 +6043,11 @@
         <v>4056674.456674548</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6865,14 +6079,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6904,14 +6112,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6940,17 +6142,11 @@
         <v>4112158.297574548</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6979,17 +6175,11 @@
         <v>3674794.871274548</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7021,14 +6211,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6244,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7099,14 +6277,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7138,14 +6310,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7177,14 +6343,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7216,14 +6376,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7255,14 +6409,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7333,14 +6475,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7372,14 +6508,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7411,14 +6541,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7450,14 +6574,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7489,14 +6607,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7528,14 +6640,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7567,14 +6673,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7606,14 +6706,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7645,14 +6739,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7684,14 +6772,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7723,14 +6805,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7762,14 +6838,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7801,14 +6871,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7840,14 +6904,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7879,14 +6937,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +6970,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +7003,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7996,14 +7036,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8035,14 +7069,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8074,14 +7102,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8113,14 +7135,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8152,14 +7168,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8191,14 +7201,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8230,14 +7234,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8269,14 +7267,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8308,14 +7300,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8347,14 +7333,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8386,14 +7366,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8425,14 +7399,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8464,14 +7432,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8503,14 +7465,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8539,23 +7495,15 @@
         <v>7674030.661270261</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>1.155777385159011</v>
-      </c>
-      <c r="M212" t="n">
-        <v>1.058181818181818</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8745,7 +7693,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8778,7 +7726,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8811,7 +7759,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8844,7 +7792,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8877,7 +7825,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8910,7 +7858,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8943,7 +7891,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8976,7 +7924,7 @@
         <v>7518932.994370261</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9009,7 +7957,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9042,7 +7990,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9075,7 +8023,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9108,7 +8056,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9141,7 +8089,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9174,7 +8122,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9207,7 +8155,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9240,7 +8188,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9273,7 +8221,7 @@
         <v>7602486.501270261</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9306,7 +8254,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9636,7 +8584,7 @@
         <v>8114435.383370261</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9669,7 +8617,7 @@
         <v>7614304.966770261</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9702,7 +8650,7 @@
         <v>7614304.966770261</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9735,7 +8683,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9768,7 +8716,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9801,7 +8749,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9834,7 +8782,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9867,7 +8815,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9900,7 +8848,7 @@
         <v>7618250.723029921</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9933,7 +8881,7 @@
         <v>7280739.014129921</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9966,7 +8914,7 @@
         <v>7250282.431329921</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9999,7 +8947,7 @@
         <v>7243616.431329921</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10032,7 +8980,7 @@
         <v>7243565.481329921</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10065,7 +9013,7 @@
         <v>7248116.434729921</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10098,7 +9046,7 @@
         <v>7039373.057929921</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10131,7 +9079,7 @@
         <v>7039479.007929921</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10164,7 +9112,7 @@
         <v>6877659.025429921</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10197,7 +9145,7 @@
         <v>6877659.025429921</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10230,7 +9178,7 @@
         <v>6877659.025429921</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10263,7 +9211,7 @@
         <v>7194737.756429921</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10296,7 +9244,7 @@
         <v>7072996.110229921</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10329,7 +9277,7 @@
         <v>7072912.16022992</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10362,7 +9310,7 @@
         <v>7058228.78152992</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10395,7 +9343,7 @@
         <v>7069494.941929921</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10428,7 +9376,7 @@
         <v>7069421.99192992</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10461,7 +9409,7 @@
         <v>7069349.04192992</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10494,7 +9442,7 @@
         <v>7069349.04192992</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10560,7 +9508,7 @@
         <v>7525509.42032992</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10593,7 +9541,7 @@
         <v>7493196.11562992</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10626,7 +9574,7 @@
         <v>7493196.11562992</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10659,7 +9607,7 @@
         <v>7329290.42712992</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -13035,7 +11983,7 @@
         <v>8210454.291626227</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13101,7 +12049,7 @@
         <v>8186632.715526227</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13794,7 +12742,7 @@
         <v>7674626.536026226</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14190,7 +13138,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14223,7 +13171,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14388,7 +13336,7 @@
         <v>9088981.084426226</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14421,7 +13369,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14454,7 +13402,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14487,7 +13435,7 @@
         <v>9088879.184426228</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14520,7 +13468,7 @@
         <v>9093711.806426227</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14553,7 +13501,7 @@
         <v>9125917.222926227</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14652,7 +13600,7 @@
         <v>9180354.698926229</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15411,7 +14359,7 @@
         <v>14708679.53713593</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15444,7 +14392,7 @@
         <v>14708679.53713593</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15477,7 +14425,7 @@
         <v>14642345.43473593</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15510,7 +14458,7 @@
         <v>14642345.43473593</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15543,7 +14491,7 @@
         <v>14641516.98313593</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15741,7 +14689,7 @@
         <v>14882116.65493593</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15774,7 +14722,7 @@
         <v>14882076.70493593</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15807,7 +14755,7 @@
         <v>15191095.21443594</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16203,7 +15151,7 @@
         <v>14685963.04783594</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16236,7 +15184,7 @@
         <v>14607120.51983594</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16467,7 +15415,7 @@
         <v>11552954.35713594</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16533,7 +15481,7 @@
         <v>11528979.65186147</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18282,7 +17230,7 @@
         <v>10543700.28986147</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18315,7 +17263,7 @@
         <v>10543711.28986147</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18348,7 +17296,7 @@
         <v>10449109.99096147</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18711,7 +17659,7 @@
         <v>10449159.99096147</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18744,7 +17692,7 @@
         <v>10447904.16446147</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18777,7 +17725,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18810,7 +17758,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18843,7 +17791,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18876,7 +17824,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18909,7 +17857,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19008,7 +17956,7 @@
         <v>10303979.99706147</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20691,7 +19639,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20724,7 +19672,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20757,7 +19705,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20790,7 +19738,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20823,7 +19771,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20856,7 +19804,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20889,7 +19837,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20922,7 +19870,7 @@
         <v>13490608.6682878</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20955,7 +19903,7 @@
         <v>13479135.9747878</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20988,7 +19936,7 @@
         <v>13453559.4309878</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21021,7 +19969,7 @@
         <v>13452646.00058779</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21054,7 +20002,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21087,7 +20035,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21120,7 +20068,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21153,7 +20101,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21186,7 +20134,7 @@
         <v>13147895.83818779</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21219,7 +20167,7 @@
         <v>13179804.12868779</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21252,7 +20200,7 @@
         <v>13126701.19248779</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21285,7 +20233,7 @@
         <v>13166258.80338779</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21318,7 +20266,7 @@
         <v>13403138.71898779</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21351,7 +20299,7 @@
         <v>13401206.41958779</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21384,7 +20332,7 @@
         <v>13407672.41958779</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21417,7 +20365,7 @@
         <v>13407439.41958779</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21450,7 +20398,7 @@
         <v>13442864.88036478</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21483,7 +20431,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21516,7 +20464,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21549,7 +20497,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21582,7 +20530,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21615,7 +20563,7 @@
         <v>13215459.27926478</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21648,7 +20596,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21681,7 +20629,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21714,7 +20662,7 @@
         <v>13077846.11596478</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21747,7 +20695,7 @@
         <v>13177526.41516478</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21780,7 +20728,7 @@
         <v>13123021.54846478</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21813,7 +20761,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21846,7 +20794,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22176,7 +21124,7 @@
         <v>12656203.64226478</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23342,6 +22290,6 @@
       <c r="M660" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest FAB.xlsx
+++ b/BackTest/2019-10-16 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-534785.1385</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-534785.1385</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -634,14 +616,10 @@
         <v>-534785.1385</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -674,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -713,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1177,10 @@
         <v>-2258061.9794</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1248,19 +1210,11 @@
         <v>-2221061.9794</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1289,19 +1243,11 @@
         <v>-2221028.9794</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1375,10 @@
         <v>-2178276.8311</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J30" t="n">
-        <v>5.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1472,13 +1414,9 @@
         <v>5.56</v>
       </c>
       <c r="J31" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.56</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1507,13 +1445,11 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1551,8 +1487,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1614,10 +1556,14 @@
         <v>-2338940.1679</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.6</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1653,9 +1599,13 @@
         <v>5.58</v>
       </c>
       <c r="J36" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>5.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1690,7 +1640,7 @@
         <v>5.58</v>
       </c>
       <c r="J37" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1733,48 +1683,48 @@
       <c r="J38" t="n">
         <v>5.58</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>63331</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2392271.1679</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>63331</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-2392271.1679</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1809,7 +1759,7 @@
         <v>5.6</v>
       </c>
       <c r="J40" t="n">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1850,46 +1800,50 @@
         <v>5.6</v>
       </c>
       <c r="J41" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>5.6</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F42" t="n">
+        <v>900054.9488250869</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1141985.379377512</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D42" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E42" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F42" t="n">
-        <v>900054.9488250869</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1141985.379377512</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1918,11 +1872,19 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,7 +2045,7 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2776,7 +2738,7 @@
         <v>495668.0106224876</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2809,7 +2771,7 @@
         <v>411727.0632224876</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3007,7 +2969,7 @@
         <v>419757.3295224876</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3040,7 +3002,7 @@
         <v>324077.9113224876</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3073,7 +3035,7 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3106,7 +3068,7 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3139,7 +3101,7 @@
         <v>253909.2479224876</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3172,7 +3134,7 @@
         <v>253919.2479224876</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3205,7 +3167,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3238,7 +3200,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3271,7 +3233,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3304,7 +3266,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3337,7 +3299,7 @@
         <v>273589.5791224876</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3370,7 +3332,7 @@
         <v>265856.7921224876</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3403,7 +3365,7 @@
         <v>299277.1261224876</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3436,7 +3398,7 @@
         <v>375816.1066224876</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3469,7 +3431,7 @@
         <v>220500.4007167924</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3502,7 +3464,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3535,7 +3497,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3568,7 +3530,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -5185,7 +5147,7 @@
         <v>2664664.194113879</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5218,7 +5180,7 @@
         <v>3534102.275813879</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5251,7 +5213,7 @@
         <v>3508843.59071388</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5284,7 +5246,7 @@
         <v>3790270.34611388</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5317,7 +5279,7 @@
         <v>3496958.67231388</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5350,7 +5312,7 @@
         <v>3753130.80921388</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5383,7 +5345,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5416,7 +5378,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5449,7 +5411,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5482,7 +5444,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6043,7 +6005,7 @@
         <v>4056674.456674548</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6142,7 +6104,7 @@
         <v>4112158.297574548</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6175,7 +6137,7 @@
         <v>3674794.871274548</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7297,7 +7259,7 @@
         <v>8998379.342270261</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7330,7 +7292,7 @@
         <v>8474742.887970261</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7363,7 +7325,7 @@
         <v>8353297.438470261</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7396,7 +7358,7 @@
         <v>7788824.225770261</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7429,7 +7391,7 @@
         <v>7918075.370770261</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7462,7 +7424,7 @@
         <v>8059208.343370261</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7495,7 +7457,7 @@
         <v>7674030.661270261</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7528,7 +7490,7 @@
         <v>7571345.208270261</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7561,7 +7523,7 @@
         <v>7571345.208270261</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7594,7 +7556,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7627,7 +7589,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7660,7 +7622,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7693,7 +7655,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7726,7 +7688,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7759,7 +7721,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7792,7 +7754,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7825,7 +7787,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7858,7 +7820,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7891,7 +7853,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7924,7 +7886,7 @@
         <v>7518932.994370261</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7957,7 +7919,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7990,7 +7952,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8023,7 +7985,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8056,7 +8018,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8089,7 +8051,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8122,7 +8084,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8155,7 +8117,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8188,7 +8150,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8221,7 +8183,7 @@
         <v>7602486.501270261</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8254,7 +8216,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8287,7 +8249,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8320,7 +8282,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8353,7 +8315,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8386,7 +8348,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8419,7 +8381,7 @@
         <v>7581609.76727026</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8452,7 +8414,7 @@
         <v>7394421.384570261</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8485,7 +8447,7 @@
         <v>7358801.896970261</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8518,7 +8480,7 @@
         <v>7358801.896970261</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -11983,7 +11945,7 @@
         <v>8210454.291626227</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12049,7 +12011,7 @@
         <v>8186632.715526227</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12742,7 +12704,7 @@
         <v>7674626.536026226</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13138,7 +13100,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13171,7 +13133,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13336,7 +13298,7 @@
         <v>9088981.084426226</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13369,7 +13331,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13402,7 +13364,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13435,7 +13397,7 @@
         <v>9088879.184426228</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13468,7 +13430,7 @@
         <v>9093711.806426227</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13501,7 +13463,7 @@
         <v>9125917.222926227</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13600,7 +13562,7 @@
         <v>9180354.698926229</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13765,7 +13727,7 @@
         <v>14468617.44093925</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13798,7 +13760,7 @@
         <v>14347897.46203925</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14524,7 +14486,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14557,7 +14519,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14590,7 +14552,7 @@
         <v>14669124.47643593</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14623,7 +14585,7 @@
         <v>14669135.47643593</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14656,7 +14618,7 @@
         <v>14663869.44983593</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14689,7 +14651,7 @@
         <v>14882116.65493593</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14722,7 +14684,7 @@
         <v>14882076.70493593</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14755,7 +14717,7 @@
         <v>15191095.21443594</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17230,7 +17192,7 @@
         <v>10543700.28986147</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17263,7 +17225,7 @@
         <v>10543711.28986147</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17296,7 +17258,7 @@
         <v>10449109.99096147</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17659,7 +17621,7 @@
         <v>10449159.99096147</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17692,7 +17654,7 @@
         <v>10447904.16446147</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17725,7 +17687,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17758,7 +17720,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17791,7 +17753,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17824,7 +17786,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17857,7 +17819,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17956,7 +17918,7 @@
         <v>10303979.99706147</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19639,7 +19601,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19672,7 +19634,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19705,7 +19667,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19738,7 +19700,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19771,7 +19733,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19804,7 +19766,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19837,7 +19799,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19870,7 +19832,7 @@
         <v>13490608.6682878</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19903,7 +19865,7 @@
         <v>13479135.9747878</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19936,7 +19898,7 @@
         <v>13453559.4309878</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19969,7 +19931,7 @@
         <v>13452646.00058779</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20002,7 +19964,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20035,7 +19997,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20068,7 +20030,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20101,7 +20063,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20134,7 +20096,7 @@
         <v>13147895.83818779</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20167,7 +20129,7 @@
         <v>13179804.12868779</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20200,7 +20162,7 @@
         <v>13126701.19248779</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20233,7 +20195,7 @@
         <v>13166258.80338779</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20266,7 +20228,7 @@
         <v>13403138.71898779</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20299,7 +20261,7 @@
         <v>13401206.41958779</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20332,7 +20294,7 @@
         <v>13407672.41958779</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20365,7 +20327,7 @@
         <v>13407439.41958779</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20398,7 +20360,7 @@
         <v>13442864.88036478</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20431,7 +20393,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20464,7 +20426,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20497,7 +20459,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20530,7 +20492,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20563,7 +20525,7 @@
         <v>13215459.27926478</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20596,7 +20558,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20629,7 +20591,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20662,7 +20624,7 @@
         <v>13077846.11596478</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20695,7 +20657,7 @@
         <v>13177526.41516478</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20728,7 +20690,7 @@
         <v>13123021.54846478</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20761,7 +20723,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20794,7 +20756,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21124,7 +21086,7 @@
         <v>12656203.64226478</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
